--- a/ingredients.xlsx
+++ b/ingredients.xlsx
@@ -8,62 +8,125 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Desktop\Eddie's Quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3ED43869-7060-4ED6-91CC-889C281AEBB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D54E5047-F4CD-4AFB-86BC-BCDB7F500096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="ingredients" sheetId="1" r:id="rId1"/>
+    <sheet name="big ingredients" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="429">
   <si>
     <t>beef tips</t>
   </si>
   <si>
+    <t>filet mignon</t>
+  </si>
+  <si>
+    <t>iceberg lettuce</t>
+  </si>
+  <si>
+    <t>romaine lettuce</t>
+  </si>
+  <si>
+    <t>70/90 count shrimp</t>
+  </si>
+  <si>
+    <t>gruyere cheese</t>
+  </si>
+  <si>
+    <t>ranch dressing</t>
+  </si>
+  <si>
+    <t>ranch</t>
+  </si>
+  <si>
+    <t>creamy herb dressing</t>
+  </si>
+  <si>
+    <t>scallions</t>
+  </si>
+  <si>
+    <t>grape tomato halves</t>
+  </si>
+  <si>
+    <t>grape tomatoes</t>
+  </si>
+  <si>
+    <t>asian ginger chili sauce</t>
+  </si>
+  <si>
+    <t>micro cilantro</t>
+  </si>
+  <si>
+    <t>shrimp</t>
+  </si>
+  <si>
+    <t>sweet and spicy chili sauce</t>
+  </si>
+  <si>
+    <t>artichoke hearts</t>
+  </si>
+  <si>
+    <t>diced red onion</t>
+  </si>
+  <si>
+    <t>red onion</t>
+  </si>
+  <si>
+    <t>toasted almonds</t>
+  </si>
+  <si>
+    <t>crispy leeks</t>
+  </si>
+  <si>
+    <t>leeks</t>
+  </si>
+  <si>
+    <t>gargonzola cheese crumbles</t>
+  </si>
+  <si>
+    <t>gargonzola</t>
+  </si>
+  <si>
+    <t>diced cherrywood smoked bacon lardons</t>
+  </si>
+  <si>
+    <t>diced cherrywood smoked bacon</t>
+  </si>
+  <si>
+    <t>cherrywood smoked bacon</t>
+  </si>
+  <si>
+    <t>chili paste</t>
+  </si>
+  <si>
+    <t>sesame oil</t>
+  </si>
+  <si>
+    <t>soy sauce</t>
+  </si>
+  <si>
+    <t>tempura batter</t>
+  </si>
+  <si>
     <t>garlic</t>
   </si>
   <si>
-    <t>sesame oil</t>
-  </si>
-  <si>
     <t>onion</t>
   </si>
   <si>
     <t>ginger</t>
   </si>
   <si>
-    <t>chili paste</t>
-  </si>
-  <si>
-    <t>soy sauce</t>
-  </si>
-  <si>
     <t>cilantro</t>
   </si>
   <si>
-    <t>scallions</t>
-  </si>
-  <si>
-    <t>asian ginger chili sauce</t>
-  </si>
-  <si>
-    <t>micro cilantro</t>
-  </si>
-  <si>
-    <t>70/90 count shrimp</t>
-  </si>
-  <si>
-    <t>tempura batter</t>
-  </si>
-  <si>
-    <t>sweet and spicy chili sauce</t>
-  </si>
-  <si>
     <t>sriracha</t>
   </si>
   <si>
@@ -103,9 +166,6 @@
     <t>horseradish</t>
   </si>
   <si>
-    <t>cherrywood smoked bacon</t>
-  </si>
-  <si>
     <t>southern comfort barbeque sauce</t>
   </si>
   <si>
@@ -166,9 +226,6 @@
     <t>cream cheese</t>
   </si>
   <si>
-    <t>artichoke hearts</t>
-  </si>
-  <si>
     <t>spinach</t>
   </si>
   <si>
@@ -211,182 +268,1052 @@
     <t>yellow corn</t>
   </si>
   <si>
-    <t>red onion</t>
-  </si>
-  <si>
     <t>red pepper</t>
   </si>
   <si>
+    <t>basil</t>
+  </si>
+  <si>
+    <t>cajun remoulade</t>
+  </si>
+  <si>
+    <t>beef tenderloin</t>
+  </si>
+  <si>
+    <t>extra virgin olive oil</t>
+  </si>
+  <si>
+    <t>balsamic glaze</t>
+  </si>
+  <si>
+    <t>salt</t>
+  </si>
+  <si>
+    <t>pepper</t>
+  </si>
+  <si>
+    <t>capers</t>
+  </si>
+  <si>
+    <t>shaved parmesan cheese</t>
+  </si>
+  <si>
+    <t>potato chips</t>
+  </si>
+  <si>
+    <t>hot soppressata</t>
+  </si>
+  <si>
+    <t>coppa secca</t>
+  </si>
+  <si>
+    <t>dry chorizo</t>
+  </si>
+  <si>
+    <t>wheel cut manchego</t>
+  </si>
+  <si>
+    <t>pie cut parmesan</t>
+  </si>
+  <si>
+    <t>pie cut gargonzola</t>
+  </si>
+  <si>
+    <t>triangle gruyere</t>
+  </si>
+  <si>
+    <t>wheel cut manchego cheese</t>
+  </si>
+  <si>
+    <t>pie cut parmesan cheese</t>
+  </si>
+  <si>
+    <t>pie cut gargonzola cheese</t>
+  </si>
+  <si>
+    <t>triangle gruyere cheese</t>
+  </si>
+  <si>
+    <t>barbeque shrimp</t>
+  </si>
+  <si>
+    <t>maryland crab cakes</t>
+  </si>
+  <si>
+    <t>filet mignon pot stickers</t>
+  </si>
+  <si>
+    <t>cocktail shrimp</t>
+  </si>
+  <si>
+    <t>oysters on the half shell</t>
+  </si>
+  <si>
+    <t>sesame crusted yellowfin ahi tuna</t>
+  </si>
+  <si>
+    <t>croutons</t>
+  </si>
+  <si>
+    <t>grated parmesan cheese</t>
+  </si>
+  <si>
+    <t>red onions</t>
+  </si>
+  <si>
+    <t>yellow onions</t>
+  </si>
+  <si>
+    <t>green onions</t>
+  </si>
+  <si>
+    <t>beef stock</t>
+  </si>
+  <si>
+    <t>roasted garlic puree</t>
+  </si>
+  <si>
+    <t>madeira wine</t>
+  </si>
+  <si>
+    <t>thyme</t>
+  </si>
+  <si>
+    <t>brandy</t>
+  </si>
+  <si>
+    <t>minors crab base</t>
+  </si>
+  <si>
+    <t>white wine</t>
+  </si>
+  <si>
+    <t>half and half</t>
+  </si>
+  <si>
+    <t>corn starch</t>
+  </si>
+  <si>
+    <t>tabasco</t>
+  </si>
+  <si>
+    <t>lemon juice</t>
+  </si>
+  <si>
+    <t>white pepper</t>
+  </si>
+  <si>
+    <t>roasted corn</t>
+  </si>
+  <si>
+    <t>king crab knuckle meat</t>
+  </si>
+  <si>
+    <t>chopped romaine lettuce</t>
+  </si>
+  <si>
+    <t>caesar dressing</t>
+  </si>
+  <si>
+    <t>red cabbage</t>
+  </si>
+  <si>
+    <t>cucumber slices</t>
+  </si>
+  <si>
+    <t>red onion rings</t>
+  </si>
+  <si>
+    <t>blue cheese crumbles</t>
+  </si>
+  <si>
+    <t>tomato wedges</t>
+  </si>
+  <si>
+    <t>blue cheese dressing</t>
+  </si>
+  <si>
+    <t>celery</t>
+  </si>
+  <si>
+    <t>prosciutto</t>
+  </si>
+  <si>
+    <t>paprika</t>
+  </si>
+  <si>
+    <t>granulated garlic</t>
+  </si>
+  <si>
+    <t>kosher salt</t>
+  </si>
+  <si>
+    <t>herbs de provence</t>
+  </si>
+  <si>
+    <t>balsamic vinegar</t>
+  </si>
+  <si>
+    <t>salad oil</t>
+  </si>
+  <si>
+    <t>shallots</t>
+  </si>
+  <si>
+    <t>bay leaves</t>
+  </si>
+  <si>
+    <t>honey</t>
+  </si>
+  <si>
+    <t>wocestershire sauce</t>
+  </si>
+  <si>
+    <t>cracked black peppercorns</t>
+  </si>
+  <si>
+    <t>ranch seasoning mix</t>
+  </si>
+  <si>
+    <t>maple syrup</t>
+  </si>
+  <si>
+    <t>apple cider vinegar</t>
+  </si>
+  <si>
+    <t>gargonzola cheese chunks</t>
+  </si>
+  <si>
+    <t>sour cream</t>
+  </si>
+  <si>
+    <t>red wine vinegar</t>
+  </si>
+  <si>
+    <t>mustard</t>
+  </si>
+  <si>
+    <t>cayenne pepper</t>
+  </si>
+  <si>
+    <t>liquid egg yolk</t>
+  </si>
+  <si>
+    <t>rice wine vinegar</t>
+  </si>
+  <si>
+    <t>dry mustard</t>
+  </si>
+  <si>
+    <t>chives</t>
+  </si>
+  <si>
+    <t>anchovies</t>
+  </si>
+  <si>
+    <t>white vinegar</t>
+  </si>
+  <si>
+    <t>black pepper</t>
+  </si>
+  <si>
+    <t>olive oil</t>
+  </si>
+  <si>
+    <t>potato</t>
+  </si>
+  <si>
+    <t>clarified butter</t>
+  </si>
+  <si>
+    <t>butter</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>roasted garlic</t>
+  </si>
+  <si>
+    <t>sauteed lobster meat</t>
+  </si>
+  <si>
+    <t>lobster butter</t>
+  </si>
+  <si>
+    <t>french fried potatoes</t>
+  </si>
+  <si>
+    <t>truffle oil</t>
+  </si>
+  <si>
+    <t>mascarpone cheese</t>
+  </si>
+  <si>
+    <t>pepperjack cheese</t>
+  </si>
+  <si>
+    <t>cheddar cheese</t>
+  </si>
+  <si>
+    <t>mustard powder</t>
+  </si>
+  <si>
+    <t>chicken base</t>
+  </si>
+  <si>
+    <t>gratinee</t>
+  </si>
+  <si>
+    <t>diced potatoes</t>
+  </si>
+  <si>
+    <t>rich cream sauce</t>
+  </si>
+  <si>
+    <t>jalepeno peppers</t>
+  </si>
+  <si>
+    <t>sweet potatoes</t>
+  </si>
+  <si>
+    <t>brown sugar</t>
+  </si>
+  <si>
+    <t>pecans</t>
+  </si>
+  <si>
+    <t>steamed broccoli florets</t>
+  </si>
+  <si>
+    <t>steamed asparagus</t>
+  </si>
+  <si>
+    <t>sesame tempura batter</t>
+  </si>
+  <si>
+    <t>asparagus</t>
+  </si>
+  <si>
+    <t>green beans</t>
+  </si>
+  <si>
+    <t>brussels sprouts</t>
+  </si>
+  <si>
+    <t>caramelized onions</t>
+  </si>
+  <si>
+    <t>nutmeg</t>
+  </si>
+  <si>
+    <t>cream sauce</t>
+  </si>
+  <si>
+    <t>shiitake mushrooms</t>
+  </si>
+  <si>
+    <t>oyster mushrooms</t>
+  </si>
+  <si>
+    <t>cremini mushrooms</t>
+  </si>
+  <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>mushroom stock</t>
+  </si>
+  <si>
+    <t>prime new york strip</t>
+  </si>
+  <si>
+    <t>prime ribeye</t>
+  </si>
+  <si>
+    <t>bourbon</t>
+  </si>
+  <si>
+    <t>spices</t>
+  </si>
+  <si>
+    <t>fried seasoned onion straws</t>
+  </si>
+  <si>
+    <t>filet mignon medallions</t>
+  </si>
+  <si>
+    <t>peppercorn sauce</t>
+  </si>
+  <si>
+    <t>bacon gargonzola cheese crust</t>
+  </si>
+  <si>
+    <t>oscar topping</t>
+  </si>
+  <si>
+    <t>filet mignon medallion</t>
+  </si>
+  <si>
+    <t>fingerling potatoes</t>
+  </si>
+  <si>
+    <t>sauteed shrimp</t>
+  </si>
+  <si>
+    <t>garlic infused crab</t>
+  </si>
+  <si>
+    <t>dijonaise</t>
+  </si>
+  <si>
+    <t>andouille sausage</t>
+  </si>
+  <si>
+    <t>blackening spice</t>
+  </si>
+  <si>
+    <t>filet medallion</t>
+  </si>
+  <si>
+    <t>andouille sausage gravy</t>
+  </si>
+  <si>
+    <t>roasted garlic mashed potatoes</t>
+  </si>
+  <si>
+    <t>bison filet mignon</t>
+  </si>
+  <si>
+    <t>bone-in bison ribeye</t>
+  </si>
+  <si>
+    <t>prime beef patty</t>
+  </si>
+  <si>
+    <t>toasted bun</t>
+  </si>
+  <si>
+    <t>choice of cheddar, gruyere, or gargonzola cheese</t>
+  </si>
+  <si>
+    <t>tomato slice</t>
+  </si>
+  <si>
+    <t>pickle spear</t>
+  </si>
+  <si>
+    <t>choice of chips or french fries</t>
+  </si>
+  <si>
+    <t>ms 9+ filet mignon</t>
+  </si>
+  <si>
+    <t>ms 7/8+ wagyu ribeye</t>
+  </si>
+  <si>
+    <t>60 south salmon</t>
+  </si>
+  <si>
+    <t>charred cedar plank</t>
+  </si>
+  <si>
+    <t>roasted fingerling potatoes</t>
+  </si>
+  <si>
+    <t>sauteed green beans</t>
+  </si>
+  <si>
+    <t>blackening seasoning</t>
+  </si>
+  <si>
+    <t>8/12 count shrimp</t>
+  </si>
+  <si>
+    <t>u-15 scallops</t>
+  </si>
+  <si>
+    <t>corn</t>
+  </si>
+  <si>
+    <t>poblano peppers</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>mojo sauce</t>
+  </si>
+  <si>
+    <t>shaved manchego cheese</t>
+  </si>
+  <si>
+    <t>black and white sesame seed crust</t>
+  </si>
+  <si>
+    <t>tuna steak</t>
+  </si>
+  <si>
+    <t>furikake rice</t>
+  </si>
+  <si>
+    <t>ahi vegetables</t>
+  </si>
+  <si>
+    <t>ginger mirin</t>
+  </si>
+  <si>
+    <t>scallion puree</t>
+  </si>
+  <si>
+    <t>frizzled scallions</t>
+  </si>
+  <si>
+    <t>sea bass</t>
+  </si>
+  <si>
+    <t>maple apple cider vinaigrette</t>
+  </si>
+  <si>
+    <t>julienned carrots</t>
+  </si>
+  <si>
+    <t>julienned zuccini</t>
+  </si>
+  <si>
+    <t>julienned yellow squash</t>
+  </si>
+  <si>
+    <t>balsamic reduction</t>
+  </si>
+  <si>
+    <t>galapagos island cold water red lobster tail</t>
+  </si>
+  <si>
+    <t>butter tower</t>
+  </si>
+  <si>
+    <t>red king crab legs</t>
+  </si>
+  <si>
+    <t>airline chicken breasts</t>
+  </si>
+  <si>
+    <t>rosemary</t>
+  </si>
+  <si>
+    <t>oregano</t>
+  </si>
+  <si>
+    <t>chicken broth</t>
+  </si>
+  <si>
+    <t>grilled asparagus spears</t>
+  </si>
+  <si>
+    <t>lemon-dijon mustard pan sauce</t>
+  </si>
+  <si>
+    <t>grilled lemon</t>
+  </si>
+  <si>
+    <t>zucchini</t>
+  </si>
+  <si>
+    <t>yellow squash</t>
+  </si>
+  <si>
+    <t>canola oil</t>
+  </si>
+  <si>
+    <t>black sesame seeds</t>
+  </si>
+  <si>
+    <t>white sesame seeds</t>
+  </si>
+  <si>
+    <t>egg yolks</t>
+  </si>
+  <si>
+    <t>hollandaise</t>
+  </si>
+  <si>
+    <t>tarragon</t>
+  </si>
+  <si>
+    <t>cracked peppercorns</t>
+  </si>
+  <si>
+    <t>veal sauce</t>
+  </si>
+  <si>
     <t>parsley</t>
   </si>
   <si>
-    <t>basil</t>
-  </si>
-  <si>
-    <t>cajun remoulade</t>
-  </si>
-  <si>
-    <t>beef tenderloin</t>
-  </si>
-  <si>
-    <t>extra virgin olive oil</t>
-  </si>
-  <si>
-    <t>balsamic glaze</t>
-  </si>
-  <si>
-    <t>salt</t>
-  </si>
-  <si>
-    <t>pepper</t>
-  </si>
-  <si>
-    <t>capers</t>
-  </si>
-  <si>
-    <t>diced red onion</t>
-  </si>
-  <si>
-    <t>shaved parmesan cheese</t>
-  </si>
-  <si>
-    <t>potato chips</t>
-  </si>
-  <si>
-    <t>hot soppressata</t>
-  </si>
-  <si>
-    <t>coppa secca</t>
-  </si>
-  <si>
-    <t>dry chorizo</t>
-  </si>
-  <si>
-    <t>wheel cut manchego</t>
-  </si>
-  <si>
-    <t>pie cut parmesan</t>
-  </si>
-  <si>
-    <t>pie cut gargonzola</t>
-  </si>
-  <si>
-    <t>triangle gruyere</t>
-  </si>
-  <si>
-    <t>wheel cut manchego cheese</t>
-  </si>
-  <si>
-    <t>pie cut parmesan cheese</t>
-  </si>
-  <si>
-    <t>pie cut gargonzola cheese</t>
-  </si>
-  <si>
-    <t>triangle gruyere cheese</t>
-  </si>
-  <si>
-    <t>barbeque shrimp</t>
-  </si>
-  <si>
-    <t>maryland crab cakes</t>
-  </si>
-  <si>
-    <t>filet mignon pot stickers</t>
-  </si>
-  <si>
-    <t>cocktail shrimp</t>
-  </si>
-  <si>
-    <t>oysters on the half shell</t>
-  </si>
-  <si>
-    <t>sesame crusted yellowfin ahi tuna</t>
-  </si>
-  <si>
-    <t>croutons</t>
-  </si>
-  <si>
-    <t>gruyere cheese</t>
-  </si>
-  <si>
-    <t>grated parmesan cheese</t>
-  </si>
-  <si>
-    <t>red onions</t>
-  </si>
-  <si>
-    <t>yellow onions</t>
-  </si>
-  <si>
-    <t>leeks</t>
-  </si>
-  <si>
-    <t>green onions</t>
-  </si>
-  <si>
-    <t>beef stock</t>
-  </si>
-  <si>
-    <t>roasted garlic puree</t>
-  </si>
-  <si>
-    <t>madeira wine</t>
-  </si>
-  <si>
-    <t>thyme</t>
-  </si>
-  <si>
-    <t>brandy</t>
-  </si>
-  <si>
-    <t>minors crab base</t>
-  </si>
-  <si>
-    <t>iceberg lettuce</t>
-  </si>
-  <si>
-    <t>romaine lettuce</t>
-  </si>
-  <si>
-    <t>red cabbage</t>
-  </si>
-  <si>
-    <t>creamy herb dressing</t>
-  </si>
-  <si>
-    <t>grape tomato halves</t>
-  </si>
-  <si>
-    <t>celery</t>
-  </si>
-  <si>
-    <t>prosciutto</t>
-  </si>
-  <si>
-    <t>toasted almonds</t>
-  </si>
-  <si>
-    <t>ranch dressing</t>
-  </si>
-  <si>
-    <t>gargonzola cheese crumbles</t>
-  </si>
-  <si>
-    <t>grape tomatoes</t>
-  </si>
-  <si>
-    <t>diced cherrywood smoked bacon lardons</t>
-  </si>
-  <si>
-    <t>crispy leeks</t>
+    <t>gorgonzola cheese</t>
+  </si>
+  <si>
+    <t>panko bread crumbs</t>
+  </si>
+  <si>
+    <t>lobster meat</t>
+  </si>
+  <si>
+    <t>asparagus spears</t>
+  </si>
+  <si>
+    <t>bearnaise</t>
+  </si>
+  <si>
+    <t>potstick</t>
+  </si>
+  <si>
+    <t>ssShrimp</t>
+  </si>
+  <si>
+    <t>calamari</t>
+  </si>
+  <si>
+    <t>poke</t>
+  </si>
+  <si>
+    <t>bbqShrimp</t>
+  </si>
+  <si>
+    <t>shrimpCocktail</t>
+  </si>
+  <si>
+    <t>halfShell</t>
+  </si>
+  <si>
+    <t>rockefeller</t>
+  </si>
+  <si>
+    <t>charbroiled</t>
+  </si>
+  <si>
+    <t>spinDip</t>
+  </si>
+  <si>
+    <t>crabCake</t>
+  </si>
+  <si>
+    <t>carpaccio</t>
+  </si>
+  <si>
+    <t>charcuterie</t>
+  </si>
+  <si>
+    <t>cheesePlate</t>
+  </si>
+  <si>
+    <t>hotApps</t>
+  </si>
+  <si>
+    <t>chilledApps</t>
+  </si>
+  <si>
+    <t>frenchOnion</t>
+  </si>
+  <si>
+    <t>crabBisque</t>
+  </si>
+  <si>
+    <t>caesarSalad</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>wedge</t>
+  </si>
+  <si>
+    <t>chopped</t>
+  </si>
+  <si>
+    <t>grilledRomaine</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>balsamicVin</t>
+  </si>
+  <si>
+    <t>mapleAppleVin</t>
+  </si>
+  <si>
+    <t>blueCheeseDress</t>
+  </si>
+  <si>
+    <t>creamyHerb</t>
+  </si>
+  <si>
+    <t>caesarDress</t>
+  </si>
+  <si>
+    <t>oilAndVinegar</t>
+  </si>
+  <si>
+    <t>bakedPotato</t>
+  </si>
+  <si>
+    <t>loadedPotato</t>
+  </si>
+  <si>
+    <t>mashedPotatoes</t>
+  </si>
+  <si>
+    <t>lobsterMashed</t>
+  </si>
+  <si>
+    <t>parmesanFries</t>
+  </si>
+  <si>
+    <t>macaroni</t>
+  </si>
+  <si>
+    <t>lobsterMac</t>
+  </si>
+  <si>
+    <t>eddiesPotatoes</t>
+  </si>
+  <si>
+    <t>sweetPotato</t>
+  </si>
+  <si>
+    <t>broccoli</t>
+  </si>
+  <si>
+    <t>tempuraAsp</t>
+  </si>
+  <si>
+    <t>tempuraBeans</t>
+  </si>
+  <si>
+    <t>eddiesBrussels</t>
+  </si>
+  <si>
+    <t>creamedSpinach</t>
+  </si>
+  <si>
+    <t>wildMush</t>
+  </si>
+  <si>
+    <t>filetMignon</t>
+  </si>
+  <si>
+    <t>nyStrip</t>
+  </si>
+  <si>
+    <t>ribeye</t>
+  </si>
+  <si>
+    <t>bourbonRib</t>
+  </si>
+  <si>
+    <t>trio</t>
+  </si>
+  <si>
+    <t>delMar</t>
+  </si>
+  <si>
+    <t>newOrleans</t>
+  </si>
+  <si>
+    <t>bisonFiletMignon</t>
+  </si>
+  <si>
+    <t>bisonBoneIn</t>
+  </si>
+  <si>
+    <t>cheeseburger</t>
+  </si>
+  <si>
+    <t>tarpolyFiletMignon</t>
+  </si>
+  <si>
+    <t>tarpolyRibeye</t>
+  </si>
+  <si>
+    <t>cedarSalmon</t>
+  </si>
+  <si>
+    <t>grilledSalmon</t>
+  </si>
+  <si>
+    <t>blackenedSalmon</t>
+  </si>
+  <si>
+    <t>shimpScallops</t>
+  </si>
+  <si>
+    <t>tunaSteak</t>
+  </si>
+  <si>
+    <t>seaBass</t>
+  </si>
+  <si>
+    <t>lobsterTail</t>
+  </si>
+  <si>
+    <t>crabLegs</t>
+  </si>
+  <si>
+    <t>lemonChicken</t>
+  </si>
+  <si>
+    <t>vegetarian</t>
+  </si>
+  <si>
+    <t>peppercorn</t>
+  </si>
+  <si>
+    <t>maxwell</t>
+  </si>
+  <si>
+    <t>oscar</t>
+  </si>
+  <si>
+    <t>baconShrimp</t>
+  </si>
+  <si>
+    <t>crabShrimpDelMar</t>
+  </si>
+  <si>
+    <t>mixedGrill</t>
+  </si>
+  <si>
+    <t>marylandCrabCake</t>
+  </si>
+  <si>
+    <t>crabLegsEnhance</t>
+  </si>
+  <si>
+    <t>lobsterTailEnhance</t>
+  </si>
+  <si>
+    <t>bananas</t>
+  </si>
+  <si>
+    <t>brownie</t>
+  </si>
+  <si>
+    <t>carrotCake</t>
+  </si>
+  <si>
+    <t>chocolateCake</t>
+  </si>
+  <si>
+    <t>cremeBrulee</t>
+  </si>
+  <si>
+    <t>pbCup</t>
+  </si>
+  <si>
+    <t>sorbet</t>
+  </si>
+  <si>
+    <t>iceCream</t>
+  </si>
+  <si>
+    <t>kidsChicken</t>
+  </si>
+  <si>
+    <t>kidsMac</t>
+  </si>
+  <si>
+    <t>Dish Name (variable)</t>
+  </si>
+  <si>
+    <t>Ingredient 1</t>
+  </si>
+  <si>
+    <t>Ingredient 2</t>
+  </si>
+  <si>
+    <t>Ingredient 3</t>
+  </si>
+  <si>
+    <t>Ingredient 4</t>
+  </si>
+  <si>
+    <t>Ingredient 5</t>
+  </si>
+  <si>
+    <t>Ingredient 6</t>
+  </si>
+  <si>
+    <t>Ingredient 7</t>
+  </si>
+  <si>
+    <t>Ingredient 8</t>
+  </si>
+  <si>
+    <t>Ingredient 9</t>
+  </si>
+  <si>
+    <t>Ingredient 10</t>
+  </si>
+  <si>
+    <t>Ingredient 11</t>
+  </si>
+  <si>
+    <t>Ingredient 12</t>
+  </si>
+  <si>
+    <t>Ingredient 13</t>
+  </si>
+  <si>
+    <t>Ingredient 14</t>
+  </si>
+  <si>
+    <t>Ingredient 15</t>
+  </si>
+  <si>
+    <t>small jumbo lump crabmeat</t>
+  </si>
+  <si>
+    <t>bearnaise sauce</t>
+  </si>
+  <si>
+    <t>8/10 count colossal shrimp</t>
+  </si>
+  <si>
+    <t>16/20 count shrimp</t>
+  </si>
+  <si>
+    <t>del mar crab</t>
+  </si>
+  <si>
+    <t>whole grain mustard dijonnaise</t>
+  </si>
+  <si>
+    <t>16/20 shrimp</t>
+  </si>
+  <si>
+    <t>crab cake</t>
+  </si>
+  <si>
+    <t>corn relish</t>
+  </si>
+  <si>
+    <t>sliced bananas</t>
+  </si>
+  <si>
+    <t>banana liqueur</t>
+  </si>
+  <si>
+    <t>dark rum</t>
+  </si>
+  <si>
+    <t>cinnamon</t>
+  </si>
+  <si>
+    <t>vanilla bean ice cream</t>
+  </si>
+  <si>
+    <t>chocolate fudge brownie</t>
+  </si>
+  <si>
+    <t>vanilla cognac</t>
+  </si>
+  <si>
+    <t>vanilla bean crème anglaise</t>
+  </si>
+  <si>
+    <t>hot fudge</t>
+  </si>
+  <si>
+    <t>spiced pecans</t>
+  </si>
+  <si>
+    <t>raspberries</t>
+  </si>
+  <si>
+    <t>chocolate cake</t>
+  </si>
+  <si>
+    <t>allspice</t>
+  </si>
+  <si>
+    <t>cloves</t>
+  </si>
+  <si>
+    <t>carrots</t>
+  </si>
+  <si>
+    <t>golden raisins</t>
+  </si>
+  <si>
+    <t>pineapple</t>
+  </si>
+  <si>
+    <t>walnuts</t>
+  </si>
+  <si>
+    <t>cream cheese frosting</t>
+  </si>
+  <si>
+    <t>caramel sauce</t>
+  </si>
+  <si>
+    <t>powdered sugar</t>
+  </si>
+  <si>
+    <t>mint sprig</t>
+  </si>
+  <si>
+    <t>chocolate fudge icing</t>
+  </si>
+  <si>
+    <t>chocolate sauce</t>
+  </si>
+  <si>
+    <t>mini chocolate chips</t>
+  </si>
+  <si>
+    <t>custard</t>
+  </si>
+  <si>
+    <t>vanilla beans</t>
+  </si>
+  <si>
+    <t>caramelized sugar crust</t>
+  </si>
+  <si>
+    <t>mint</t>
+  </si>
+  <si>
+    <t>peanut butter and graham cracker crust</t>
+  </si>
+  <si>
+    <t>peanut butter cream filling</t>
+  </si>
+  <si>
+    <t>chocolate ganache</t>
+  </si>
+  <si>
+    <t>peanut tuile</t>
+  </si>
+  <si>
+    <t>whipped cream</t>
+  </si>
+  <si>
+    <t>seasonally flavored sorbet</t>
+  </si>
+  <si>
+    <t>choice of flavored ice cream</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -517,6 +1444,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -923,6 +1856,31 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:P96" totalsRowShown="0">
+  <autoFilter ref="A1:P96"/>
+  <tableColumns count="16">
+    <tableColumn id="1" name="Dish Name (variable)"/>
+    <tableColumn id="2" name="Ingredient 1"/>
+    <tableColumn id="3" name="Ingredient 2"/>
+    <tableColumn id="4" name="Ingredient 3"/>
+    <tableColumn id="5" name="Ingredient 4"/>
+    <tableColumn id="6" name="Ingredient 5"/>
+    <tableColumn id="7" name="Ingredient 6"/>
+    <tableColumn id="8" name="Ingredient 7"/>
+    <tableColumn id="9" name="Ingredient 8"/>
+    <tableColumn id="10" name="Ingredient 9"/>
+    <tableColumn id="11" name="Ingredient 10"/>
+    <tableColumn id="12" name="Ingredient 11"/>
+    <tableColumn id="13" name="Ingredient 12"/>
+    <tableColumn id="14" name="Ingredient 13"/>
+    <tableColumn id="15" name="Ingredient 14"/>
+    <tableColumn id="16" name="Ingredient 15"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1220,529 +2178,2352 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:P93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94:P94"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="44" customWidth="1"/>
+    <col min="3" max="3" width="41.140625" customWidth="1"/>
+    <col min="4" max="4" width="48.42578125" customWidth="1"/>
+    <col min="5" max="5" width="30.42578125" customWidth="1"/>
+    <col min="6" max="6" width="40.7109375" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" customWidth="1"/>
+    <col min="8" max="8" width="32.7109375" customWidth="1"/>
+    <col min="9" max="9" width="32.42578125" customWidth="1"/>
+    <col min="10" max="10" width="42" customWidth="1"/>
+    <col min="11" max="11" width="25.85546875" customWidth="1"/>
+    <col min="12" max="14" width="20.7109375" customWidth="1"/>
+    <col min="15" max="15" width="21.85546875" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E1" t="s">
+        <v>372</v>
+      </c>
+      <c r="F1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G1" t="s">
+        <v>374</v>
+      </c>
+      <c r="H1" t="s">
+        <v>375</v>
+      </c>
+      <c r="I1" t="s">
+        <v>376</v>
+      </c>
+      <c r="J1" t="s">
+        <v>377</v>
+      </c>
+      <c r="K1" t="s">
+        <v>378</v>
+      </c>
+      <c r="L1" t="s">
+        <v>379</v>
+      </c>
+      <c r="M1" t="s">
+        <v>380</v>
+      </c>
+      <c r="N1" t="s">
+        <v>381</v>
+      </c>
+      <c r="O1" t="s">
+        <v>382</v>
+      </c>
+      <c r="P1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
         <v>9</v>
       </c>
       <c r="K2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>286</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>287</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>289</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>290</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>291</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" t="s">
+        <v>71</v>
+      </c>
+      <c r="L11" t="s">
+        <v>72</v>
+      </c>
+      <c r="M11" t="s">
+        <v>49</v>
+      </c>
+      <c r="N11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>292</v>
+      </c>
+      <c r="B12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" t="s">
+        <v>79</v>
+      </c>
+      <c r="J12" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" t="s">
+        <v>82</v>
+      </c>
+      <c r="N12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O12" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>293</v>
+      </c>
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s">
+        <v>91</v>
+      </c>
+      <c r="J13" t="s">
+        <v>92</v>
+      </c>
+      <c r="K13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>294</v>
+      </c>
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" t="s">
+        <v>98</v>
+      </c>
+      <c r="H14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>295</v>
+      </c>
+      <c r="B15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>296</v>
+      </c>
+      <c r="B16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>297</v>
+      </c>
+      <c r="B17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>298</v>
+      </c>
+      <c r="B18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" t="s">
+        <v>112</v>
+      </c>
+      <c r="G18" t="s">
+        <v>113</v>
+      </c>
+      <c r="H18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J18" t="s">
+        <v>115</v>
+      </c>
+      <c r="K18" t="s">
+        <v>116</v>
+      </c>
+      <c r="L18" t="s">
+        <v>117</v>
+      </c>
+      <c r="M18" t="s">
+        <v>118</v>
+      </c>
+      <c r="N18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>299</v>
+      </c>
+      <c r="B19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19" t="s">
+        <v>123</v>
+      </c>
+      <c r="H19" t="s">
+        <v>124</v>
+      </c>
+      <c r="I19" t="s">
+        <v>125</v>
+      </c>
+      <c r="J19" t="s">
+        <v>88</v>
+      </c>
+      <c r="K19" t="s">
+        <v>126</v>
+      </c>
+      <c r="L19" t="s">
+        <v>127</v>
+      </c>
+      <c r="M19" t="s">
+        <v>128</v>
+      </c>
+      <c r="N19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>300</v>
+      </c>
+      <c r="B20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>301</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
+        <v>132</v>
+      </c>
+      <c r="G21" t="s">
+        <v>110</v>
+      </c>
+      <c r="H21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>302</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" t="s">
+        <v>135</v>
+      </c>
+      <c r="F22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>303</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="G23" t="s">
+        <v>137</v>
+      </c>
+      <c r="H23" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" t="s">
+        <v>138</v>
+      </c>
+      <c r="L23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>304</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="F24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>305</v>
+      </c>
+      <c r="B25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" t="s">
+        <v>139</v>
+      </c>
+      <c r="D25" t="s">
+        <v>140</v>
+      </c>
+      <c r="E25" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>306</v>
+      </c>
+      <c r="B26" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" t="s">
+        <v>145</v>
+      </c>
+      <c r="E26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" t="s">
+        <v>146</v>
+      </c>
+      <c r="G26" t="s">
+        <v>118</v>
+      </c>
+      <c r="H26" t="s">
+        <v>142</v>
+      </c>
+      <c r="I26" t="s">
+        <v>72</v>
+      </c>
+      <c r="J26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K26" t="s">
+        <v>147</v>
+      </c>
+      <c r="L26" t="s">
+        <v>89</v>
+      </c>
+      <c r="M26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" t="s">
+        <v>125</v>
+      </c>
+      <c r="E27" t="s">
+        <v>148</v>
+      </c>
+      <c r="F27" t="s">
+        <v>124</v>
+      </c>
+      <c r="G27" t="s">
+        <v>116</v>
+      </c>
+      <c r="H27" t="s">
+        <v>149</v>
+      </c>
+      <c r="I27" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>307</v>
+      </c>
+      <c r="B28" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28" t="s">
+        <v>89</v>
+      </c>
+      <c r="G28" t="s">
+        <v>145</v>
+      </c>
+      <c r="H28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>308</v>
+      </c>
+      <c r="B29" t="s">
+        <v>153</v>
+      </c>
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" t="s">
+        <v>154</v>
+      </c>
+      <c r="F29" t="s">
+        <v>155</v>
+      </c>
+      <c r="G29" t="s">
+        <v>79</v>
+      </c>
+      <c r="H29" t="s">
+        <v>124</v>
+      </c>
+      <c r="I29" t="s">
+        <v>156</v>
+      </c>
+      <c r="J29" t="s">
+        <v>88</v>
+      </c>
+      <c r="K29" t="s">
+        <v>157</v>
+      </c>
+      <c r="L29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>309</v>
+      </c>
+      <c r="B30" t="s">
+        <v>158</v>
+      </c>
+      <c r="C30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" t="s">
+        <v>159</v>
+      </c>
+      <c r="E30" t="s">
+        <v>147</v>
+      </c>
+      <c r="F30" t="s">
+        <v>160</v>
+      </c>
+      <c r="G30" t="s">
+        <v>88</v>
+      </c>
+      <c r="H30" t="s">
+        <v>89</v>
+      </c>
+      <c r="I30" t="s">
+        <v>83</v>
+      </c>
+      <c r="J30" t="s">
+        <v>161</v>
+      </c>
+      <c r="K30" t="s">
+        <v>49</v>
+      </c>
+      <c r="L30" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>310</v>
+      </c>
+      <c r="B31" t="s">
+        <v>158</v>
+      </c>
+      <c r="C31" t="s">
+        <v>162</v>
+      </c>
+      <c r="D31" t="s">
+        <v>155</v>
+      </c>
+      <c r="E31" t="s">
+        <v>163</v>
+      </c>
+      <c r="F31" t="s">
+        <v>125</v>
+      </c>
+      <c r="G31" t="s">
+        <v>116</v>
+      </c>
+      <c r="H31" t="s">
+        <v>156</v>
+      </c>
+      <c r="I31" t="s">
+        <v>164</v>
+      </c>
+      <c r="J31" t="s">
+        <v>88</v>
+      </c>
+      <c r="K31" t="s">
+        <v>111</v>
+      </c>
+      <c r="L31" t="s">
+        <v>124</v>
+      </c>
+      <c r="M31" t="s">
+        <v>144</v>
+      </c>
+      <c r="N31" t="s">
+        <v>165</v>
+      </c>
+      <c r="O31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>311</v>
+      </c>
+      <c r="B32" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>312</v>
+      </c>
+      <c r="B33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" t="s">
+        <v>166</v>
+      </c>
+      <c r="D33" t="s">
+        <v>167</v>
+      </c>
+      <c r="E33" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" t="s">
+        <v>168</v>
+      </c>
+      <c r="G33" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>313</v>
+      </c>
+      <c r="B34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" t="s">
+        <v>166</v>
+      </c>
+      <c r="D34" t="s">
+        <v>167</v>
+      </c>
+      <c r="E34" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" t="s">
+        <v>168</v>
+      </c>
+      <c r="G34" t="s">
+        <v>154</v>
+      </c>
+      <c r="H34" t="s">
+        <v>161</v>
+      </c>
+      <c r="I34" t="s">
+        <v>169</v>
+      </c>
+      <c r="J34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>314</v>
+      </c>
+      <c r="B35" t="s">
+        <v>170</v>
+      </c>
+      <c r="C35" t="s">
+        <v>168</v>
+      </c>
+      <c r="D35" t="s">
+        <v>122</v>
+      </c>
+      <c r="E35" t="s">
+        <v>171</v>
+      </c>
+      <c r="F35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>315</v>
+      </c>
+      <c r="B36" t="s">
+        <v>170</v>
+      </c>
+      <c r="C36" t="s">
+        <v>168</v>
+      </c>
+      <c r="D36" t="s">
+        <v>122</v>
+      </c>
+      <c r="E36" t="s">
+        <v>171</v>
+      </c>
+      <c r="F36" t="s">
+        <v>172</v>
+      </c>
+      <c r="G36" t="s">
+        <v>173</v>
+      </c>
+      <c r="H36" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>316</v>
+      </c>
+      <c r="B37" t="s">
+        <v>174</v>
+      </c>
+      <c r="C37" t="s">
+        <v>175</v>
+      </c>
+      <c r="D37" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37" t="s">
+        <v>89</v>
+      </c>
+      <c r="F37" t="s">
+        <v>111</v>
+      </c>
+      <c r="G37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>317</v>
+      </c>
+      <c r="B38" t="s">
+        <v>176</v>
+      </c>
+      <c r="C38" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" t="s">
+        <v>177</v>
+      </c>
+      <c r="E38" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" t="s">
+        <v>178</v>
+      </c>
+      <c r="G38" t="s">
+        <v>122</v>
+      </c>
+      <c r="H38" t="s">
+        <v>126</v>
+      </c>
+      <c r="I38" t="s">
+        <v>179</v>
+      </c>
+      <c r="J38" t="s">
+        <v>180</v>
+      </c>
+      <c r="K38" t="s">
+        <v>181</v>
+      </c>
+      <c r="L38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>318</v>
+      </c>
+      <c r="B39" t="s">
+        <v>176</v>
+      </c>
+      <c r="C39" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" t="s">
+        <v>177</v>
+      </c>
+      <c r="E39" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" t="s">
+        <v>178</v>
+      </c>
+      <c r="G39" t="s">
+        <v>122</v>
+      </c>
+      <c r="H39" t="s">
+        <v>126</v>
+      </c>
+      <c r="I39" t="s">
+        <v>179</v>
+      </c>
+      <c r="J39" t="s">
+        <v>180</v>
+      </c>
+      <c r="K39" t="s">
+        <v>181</v>
+      </c>
+      <c r="L39" t="s">
+        <v>49</v>
+      </c>
+      <c r="M39" t="s">
+        <v>172</v>
+      </c>
+      <c r="N39" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>319</v>
+      </c>
+      <c r="B40" t="s">
+        <v>182</v>
+      </c>
+      <c r="C40" t="s">
+        <v>183</v>
+      </c>
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" t="s">
+        <v>62</v>
+      </c>
+      <c r="F40" t="s">
+        <v>69</v>
+      </c>
+      <c r="G40" t="s">
+        <v>184</v>
+      </c>
+      <c r="H40" t="s">
+        <v>178</v>
+      </c>
+      <c r="I40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>320</v>
+      </c>
+      <c r="B41" t="s">
+        <v>185</v>
+      </c>
+      <c r="C41" t="s">
+        <v>186</v>
+      </c>
+      <c r="D41" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41" t="s">
+        <v>89</v>
+      </c>
+      <c r="F41" t="s">
+        <v>151</v>
+      </c>
+      <c r="G41" t="s">
+        <v>168</v>
+      </c>
+      <c r="H41" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>321</v>
+      </c>
+      <c r="B42" t="s">
+        <v>188</v>
+      </c>
+      <c r="C42" t="s">
+        <v>167</v>
+      </c>
+      <c r="D42" t="s">
+        <v>88</v>
+      </c>
+      <c r="E42" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>191</v>
+      </c>
+      <c r="B43" t="s">
+        <v>189</v>
+      </c>
+      <c r="C43" t="s">
+        <v>167</v>
+      </c>
+      <c r="D43" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>322</v>
+      </c>
+      <c r="B44" t="s">
+        <v>190</v>
+      </c>
+      <c r="C44" t="s">
+        <v>191</v>
+      </c>
+      <c r="D44" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44" t="s">
+        <v>89</v>
+      </c>
+      <c r="F44" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>323</v>
+      </c>
+      <c r="B45" t="s">
+        <v>190</v>
+      </c>
+      <c r="C45" t="s">
+        <v>192</v>
+      </c>
+      <c r="D45" t="s">
+        <v>88</v>
+      </c>
+      <c r="E45" t="s">
+        <v>89</v>
+      </c>
+      <c r="F45" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>324</v>
+      </c>
+      <c r="B46" t="s">
+        <v>193</v>
+      </c>
+      <c r="C46" t="s">
+        <v>194</v>
+      </c>
+      <c r="D46" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" t="s">
+        <v>167</v>
+      </c>
+      <c r="F46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G46" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>325</v>
+      </c>
+      <c r="B47" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" t="s">
+        <v>113</v>
+      </c>
+      <c r="E47" t="s">
+        <v>140</v>
+      </c>
+      <c r="F47" t="s">
+        <v>195</v>
+      </c>
+      <c r="G47" t="s">
+        <v>157</v>
+      </c>
+      <c r="H47" t="s">
+        <v>196</v>
+      </c>
+      <c r="I47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>326</v>
+      </c>
+      <c r="B48" t="s">
+        <v>197</v>
+      </c>
+      <c r="C48" t="s">
+        <v>198</v>
+      </c>
+      <c r="D48" t="s">
+        <v>199</v>
+      </c>
+      <c r="E48" t="s">
+        <v>200</v>
+      </c>
+      <c r="F48" t="s">
+        <v>201</v>
+      </c>
+      <c r="G48" t="s">
+        <v>61</v>
+      </c>
+      <c r="H48" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>327</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" t="s">
+        <v>49</v>
+      </c>
+      <c r="E49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>328</v>
+      </c>
+      <c r="B50" t="s">
+        <v>202</v>
+      </c>
+      <c r="C50" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>329</v>
+      </c>
+      <c r="B51" t="s">
+        <v>203</v>
+      </c>
+      <c r="C51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" t="s">
+        <v>49</v>
+      </c>
+      <c r="E51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>330</v>
+      </c>
+      <c r="B52" t="s">
+        <v>203</v>
+      </c>
+      <c r="C52" t="s">
+        <v>204</v>
+      </c>
+      <c r="D52" t="s">
+        <v>186</v>
+      </c>
+      <c r="E52" t="s">
+        <v>205</v>
+      </c>
+      <c r="F52" t="s">
+        <v>31</v>
+      </c>
+      <c r="G52" t="s">
+        <v>206</v>
+      </c>
+      <c r="H52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>331</v>
+      </c>
+      <c r="B53" t="s">
+        <v>207</v>
+      </c>
+      <c r="C53" t="s">
+        <v>208</v>
+      </c>
+      <c r="D53" t="s">
+        <v>209</v>
+      </c>
+      <c r="E53" t="s">
+        <v>210</v>
+      </c>
+      <c r="F53" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>332</v>
+      </c>
+      <c r="B54" t="s">
+        <v>211</v>
+      </c>
+      <c r="C54" t="s">
+        <v>212</v>
+      </c>
+      <c r="D54" t="s">
+        <v>213</v>
+      </c>
+      <c r="E54" t="s">
+        <v>214</v>
+      </c>
+      <c r="F54" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>333</v>
+      </c>
+      <c r="B55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" t="s">
+        <v>216</v>
+      </c>
+      <c r="D55" t="s">
+        <v>217</v>
+      </c>
+      <c r="E55" t="s">
+        <v>218</v>
+      </c>
+      <c r="F55" t="s">
+        <v>61</v>
+      </c>
+      <c r="G55" t="s">
+        <v>219</v>
+      </c>
+      <c r="H55" t="s">
+        <v>220</v>
+      </c>
+      <c r="I55" t="s">
+        <v>52</v>
+      </c>
+      <c r="J55" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>334</v>
+      </c>
+      <c r="B56" t="s">
+        <v>221</v>
+      </c>
+      <c r="C56" t="s">
+        <v>61</v>
+      </c>
+      <c r="D56" t="s">
+        <v>49</v>
+      </c>
+      <c r="E56" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>335</v>
+      </c>
+      <c r="B57" t="s">
+        <v>222</v>
+      </c>
+      <c r="C57" t="s">
+        <v>61</v>
+      </c>
+      <c r="D57" t="s">
+        <v>49</v>
+      </c>
+      <c r="E57" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>336</v>
+      </c>
+      <c r="B58" t="s">
+        <v>223</v>
+      </c>
+      <c r="C58" t="s">
+        <v>224</v>
+      </c>
+      <c r="D58" t="s">
+        <v>225</v>
+      </c>
+      <c r="E58" t="s">
+        <v>177</v>
+      </c>
+      <c r="F58" t="s">
+        <v>2</v>
+      </c>
+      <c r="G58" t="s">
+        <v>226</v>
+      </c>
+      <c r="H58" t="s">
+        <v>18</v>
+      </c>
+      <c r="I58" t="s">
+        <v>227</v>
+      </c>
+      <c r="J58" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>337</v>
+      </c>
+      <c r="B59" t="s">
+        <v>229</v>
+      </c>
+      <c r="C59" t="s">
+        <v>61</v>
+      </c>
+      <c r="D59" t="s">
+        <v>52</v>
+      </c>
+      <c r="E59" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>338</v>
+      </c>
+      <c r="B60" t="s">
+        <v>230</v>
+      </c>
+      <c r="C60" t="s">
+        <v>61</v>
+      </c>
+      <c r="D60" t="s">
+        <v>52</v>
+      </c>
+      <c r="E60" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>339</v>
+      </c>
+      <c r="B61" t="s">
+        <v>231</v>
+      </c>
+      <c r="C61" t="s">
+        <v>232</v>
+      </c>
+      <c r="D61" t="s">
+        <v>61</v>
+      </c>
+      <c r="E61" t="s">
+        <v>233</v>
+      </c>
+      <c r="F61" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>340</v>
+      </c>
+      <c r="B62" t="s">
+        <v>231</v>
+      </c>
+      <c r="C62" t="s">
+        <v>61</v>
+      </c>
+      <c r="D62" t="s">
+        <v>233</v>
+      </c>
+      <c r="E62" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>341</v>
+      </c>
+      <c r="B63" t="s">
+        <v>231</v>
+      </c>
+      <c r="C63" t="s">
+        <v>235</v>
+      </c>
+      <c r="D63" t="s">
+        <v>63</v>
+      </c>
+      <c r="E63" t="s">
+        <v>233</v>
+      </c>
+      <c r="F63" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>342</v>
+      </c>
+      <c r="B64" t="s">
+        <v>236</v>
+      </c>
+      <c r="C64" t="s">
+        <v>237</v>
+      </c>
+      <c r="D64" t="s">
+        <v>238</v>
+      </c>
+      <c r="E64" t="s">
+        <v>239</v>
+      </c>
+      <c r="F64" t="s">
+        <v>240</v>
+      </c>
+      <c r="G64" t="s">
+        <v>241</v>
+      </c>
+      <c r="H64" t="s">
+        <v>242</v>
+      </c>
+      <c r="I64" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>343</v>
+      </c>
+      <c r="B65" t="s">
+        <v>243</v>
+      </c>
+      <c r="C65" t="s">
+        <v>244</v>
+      </c>
+      <c r="D65" t="s">
+        <v>245</v>
+      </c>
+      <c r="E65" t="s">
+        <v>246</v>
+      </c>
+      <c r="F65" t="s">
+        <v>247</v>
+      </c>
+      <c r="G65" t="s">
+        <v>248</v>
+      </c>
+      <c r="H65" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>344</v>
+      </c>
+      <c r="B66" t="s">
+        <v>250</v>
+      </c>
+      <c r="C66" t="s">
+        <v>251</v>
+      </c>
+      <c r="D66" t="s">
+        <v>252</v>
+      </c>
+      <c r="E66" t="s">
+        <v>253</v>
+      </c>
+      <c r="F66" t="s">
+        <v>254</v>
+      </c>
+      <c r="G66" t="s">
+        <v>255</v>
+      </c>
+      <c r="H66" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>345</v>
+      </c>
+      <c r="B67" t="s">
+        <v>256</v>
+      </c>
+      <c r="C67" t="s">
+        <v>121</v>
+      </c>
+      <c r="D67" t="s">
+        <v>168</v>
+      </c>
+      <c r="E67" t="s">
+        <v>139</v>
+      </c>
+      <c r="F67" t="s">
+        <v>49</v>
+      </c>
+      <c r="G67" t="s">
+        <v>53</v>
+      </c>
+      <c r="H67" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>346</v>
+      </c>
+      <c r="B68" t="s">
+        <v>258</v>
+      </c>
+      <c r="C68" t="s">
+        <v>257</v>
+      </c>
+      <c r="D68" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>347</v>
+      </c>
+      <c r="B69" t="s">
+        <v>259</v>
+      </c>
+      <c r="C69" t="s">
+        <v>260</v>
+      </c>
+      <c r="D69" t="s">
+        <v>261</v>
+      </c>
+      <c r="E69" t="s">
+        <v>125</v>
+      </c>
+      <c r="F69" t="s">
+        <v>262</v>
+      </c>
+      <c r="G69" t="s">
+        <v>220</v>
+      </c>
+      <c r="H69" t="s">
+        <v>263</v>
+      </c>
+      <c r="I69" t="s">
+        <v>264</v>
+      </c>
+      <c r="J69" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>348</v>
+      </c>
+      <c r="B70" t="s">
+        <v>266</v>
+      </c>
+      <c r="C70" t="s">
+        <v>267</v>
+      </c>
+      <c r="D70" t="s">
+        <v>82</v>
+      </c>
+      <c r="E70" t="s">
+        <v>268</v>
+      </c>
+      <c r="F70" t="s">
+        <v>88</v>
+      </c>
+      <c r="G70" t="s">
+        <v>89</v>
+      </c>
+      <c r="H70" t="s">
+        <v>245</v>
+      </c>
+      <c r="I70" t="s">
+        <v>246</v>
+      </c>
+      <c r="J70" t="s">
+        <v>28</v>
+      </c>
+      <c r="K70" t="s">
+        <v>269</v>
+      </c>
+      <c r="L70" t="s">
+        <v>270</v>
+      </c>
+      <c r="M70" t="s">
+        <v>44</v>
+      </c>
+      <c r="N70" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>272</v>
+      </c>
+      <c r="B71" t="s">
+        <v>168</v>
+      </c>
+      <c r="C71" t="s">
+        <v>271</v>
+      </c>
+      <c r="D71" t="s">
+        <v>125</v>
+      </c>
+      <c r="E71" t="s">
+        <v>79</v>
+      </c>
+      <c r="F71" t="s">
+        <v>124</v>
+      </c>
+      <c r="G71" t="s">
+        <v>88</v>
+      </c>
+      <c r="H71" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>272</v>
+      </c>
+      <c r="C72" t="s">
+        <v>273</v>
+      </c>
+      <c r="D72" t="s">
+        <v>121</v>
+      </c>
+      <c r="E72" t="s">
+        <v>155</v>
+      </c>
+      <c r="F72" t="s">
+        <v>31</v>
+      </c>
+      <c r="G72" t="s">
+        <v>145</v>
+      </c>
+      <c r="H72" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>349</v>
+      </c>
+      <c r="B73" t="s">
+        <v>274</v>
+      </c>
+      <c r="C73" t="s">
+        <v>119</v>
+      </c>
+      <c r="D73" t="s">
+        <v>275</v>
+      </c>
+      <c r="E73" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>47</v>
+      </c>
+      <c r="B74" t="s">
+        <v>154</v>
+      </c>
+      <c r="C74" t="s">
+        <v>79</v>
+      </c>
+      <c r="D74" t="s">
+        <v>71</v>
+      </c>
+      <c r="E74" t="s">
+        <v>47</v>
+      </c>
+      <c r="F74" t="s">
+        <v>125</v>
+      </c>
+      <c r="G74" t="s">
+        <v>69</v>
+      </c>
+      <c r="H74" t="s">
+        <v>276</v>
+      </c>
+      <c r="I74" t="s">
+        <v>88</v>
+      </c>
+      <c r="J74" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>23</v>
+      </c>
+      <c r="B75" t="s">
+        <v>277</v>
+      </c>
+      <c r="C75" t="s">
+        <v>25</v>
+      </c>
+      <c r="D75" t="s">
+        <v>136</v>
+      </c>
+      <c r="E75" t="s">
+        <v>278</v>
+      </c>
+      <c r="F75" t="s">
+        <v>89</v>
+      </c>
+      <c r="G75" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>350</v>
+      </c>
+      <c r="B76" t="s">
+        <v>279</v>
+      </c>
+      <c r="C76" t="s">
+        <v>280</v>
+      </c>
+      <c r="D76" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>351</v>
+      </c>
+      <c r="B77" t="s">
+        <v>384</v>
+      </c>
+      <c r="C77" t="s">
+        <v>280</v>
+      </c>
+      <c r="D77" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>352</v>
+      </c>
+      <c r="B78" t="s">
+        <v>386</v>
+      </c>
+      <c r="C78" t="s">
+        <v>47</v>
+      </c>
+      <c r="D78" t="s">
+        <v>26</v>
+      </c>
+      <c r="E78" t="s">
+        <v>48</v>
+      </c>
+      <c r="F78" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>353</v>
+      </c>
+      <c r="B79" t="s">
+        <v>387</v>
+      </c>
+      <c r="C79" t="s">
+        <v>388</v>
+      </c>
+      <c r="D79" t="s">
+        <v>389</v>
+      </c>
+      <c r="E79" t="s">
         <v>13</v>
       </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" t="s">
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>354</v>
+      </c>
+      <c r="B80" t="s">
+        <v>390</v>
+      </c>
+      <c r="C80" t="s">
+        <v>216</v>
+      </c>
+      <c r="D80" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>355</v>
+      </c>
+      <c r="B81" t="s">
+        <v>391</v>
+      </c>
+      <c r="C81" t="s">
+        <v>392</v>
+      </c>
+      <c r="D81" t="s">
+        <v>84</v>
+      </c>
+      <c r="E81" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>356</v>
+      </c>
+      <c r="B82" t="s">
+        <v>258</v>
+      </c>
+      <c r="C82" t="s">
+        <v>257</v>
+      </c>
+      <c r="D82" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>357</v>
+      </c>
+      <c r="B83" t="s">
+        <v>256</v>
+      </c>
+      <c r="C83" t="s">
+        <v>121</v>
+      </c>
+      <c r="D83" t="s">
+        <v>168</v>
+      </c>
+      <c r="E83" t="s">
+        <v>139</v>
+      </c>
+      <c r="F83" t="s">
         <v>49</v>
       </c>
-      <c r="G11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" t="s">
-        <v>42</v>
-      </c>
-      <c r="J11" t="s">
-        <v>52</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="G83" t="s">
         <v>53</v>
       </c>
-      <c r="L11" t="s">
-        <v>29</v>
-      </c>
-      <c r="M11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" t="s">
-        <v>60</v>
-      </c>
-      <c r="I12" t="s">
-        <v>61</v>
-      </c>
-      <c r="J12" t="s">
-        <v>62</v>
-      </c>
-      <c r="K12" t="s">
-        <v>63</v>
-      </c>
-      <c r="L12" t="s">
-        <v>64</v>
-      </c>
-      <c r="M12" t="s">
-        <v>65</v>
-      </c>
-      <c r="N12" t="s">
-        <v>66</v>
-      </c>
-      <c r="O12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="H83" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>358</v>
+      </c>
+      <c r="B84" t="s">
+        <v>168</v>
+      </c>
+      <c r="C84" t="s">
+        <v>186</v>
+      </c>
+      <c r="D84" t="s">
+        <v>393</v>
+      </c>
+      <c r="E84" t="s">
+        <v>394</v>
+      </c>
+      <c r="F84" t="s">
+        <v>395</v>
+      </c>
+      <c r="G84" t="s">
+        <v>396</v>
+      </c>
+      <c r="H84" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>359</v>
+      </c>
+      <c r="B85" t="s">
+        <v>397</v>
+      </c>
+      <c r="C85" t="s">
+        <v>398</v>
+      </c>
+      <c r="D85" t="s">
+        <v>399</v>
+      </c>
+      <c r="E85" t="s">
+        <v>400</v>
+      </c>
+      <c r="F85" t="s">
+        <v>401</v>
+      </c>
+      <c r="G85" t="s">
+        <v>402</v>
+      </c>
+      <c r="H85" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>360</v>
+      </c>
+      <c r="B86" t="s">
         <v>74</v>
       </c>
-      <c r="H13" t="s">
-        <v>75</v>
-      </c>
-      <c r="I13" t="s">
-        <v>76</v>
-      </c>
-      <c r="J13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>88</v>
-      </c>
-      <c r="B16" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B17" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>94</v>
-      </c>
-      <c r="B18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" t="s">
-        <v>97</v>
-      </c>
-      <c r="F18" t="s">
-        <v>98</v>
-      </c>
-      <c r="G18" t="s">
-        <v>99</v>
-      </c>
-      <c r="H18" t="s">
-        <v>100</v>
-      </c>
-      <c r="I18" t="s">
-        <v>101</v>
-      </c>
-      <c r="J18" t="s">
-        <v>102</v>
-      </c>
-      <c r="K18" t="s">
-        <v>103</v>
-      </c>
-      <c r="L18" t="s">
-        <v>104</v>
-      </c>
-      <c r="M18" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>107</v>
-      </c>
-      <c r="B23" t="s">
-        <v>108</v>
-      </c>
-      <c r="C23" t="s">
-        <v>109</v>
-      </c>
-      <c r="D23" t="s">
-        <v>110</v>
-      </c>
-      <c r="E23" t="s">
-        <v>111</v>
-      </c>
-      <c r="F23" t="s">
-        <v>112</v>
-      </c>
-      <c r="G23" t="s">
-        <v>95</v>
-      </c>
-      <c r="H23" t="s">
-        <v>48</v>
-      </c>
-      <c r="I23" t="s">
-        <v>74</v>
-      </c>
-      <c r="J23" t="s">
-        <v>113</v>
-      </c>
-      <c r="K23" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>108</v>
-      </c>
-      <c r="B24" t="s">
-        <v>115</v>
-      </c>
-      <c r="C24" t="s">
-        <v>116</v>
-      </c>
-      <c r="D24" t="s">
-        <v>117</v>
-      </c>
-      <c r="E24" t="s">
-        <v>118</v>
-      </c>
-      <c r="F24" t="s">
-        <v>119</v>
+      <c r="C86" t="s">
+        <v>396</v>
+      </c>
+      <c r="D86" t="s">
+        <v>405</v>
+      </c>
+      <c r="E86" t="s">
+        <v>406</v>
+      </c>
+      <c r="F86" t="s">
+        <v>407</v>
+      </c>
+      <c r="G86" t="s">
+        <v>408</v>
+      </c>
+      <c r="H86" t="s">
+        <v>409</v>
+      </c>
+      <c r="I86" t="s">
+        <v>410</v>
+      </c>
+      <c r="J86" t="s">
+        <v>411</v>
+      </c>
+      <c r="K86" t="s">
+        <v>412</v>
+      </c>
+      <c r="L86" t="s">
+        <v>413</v>
+      </c>
+      <c r="M86" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>361</v>
+      </c>
+      <c r="B87" t="s">
+        <v>404</v>
+      </c>
+      <c r="C87" t="s">
+        <v>415</v>
+      </c>
+      <c r="D87" t="s">
+        <v>416</v>
+      </c>
+      <c r="E87" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>362</v>
+      </c>
+      <c r="B88" t="s">
+        <v>418</v>
+      </c>
+      <c r="C88" t="s">
+        <v>419</v>
+      </c>
+      <c r="D88" t="s">
+        <v>420</v>
+      </c>
+      <c r="E88" t="s">
+        <v>403</v>
+      </c>
+      <c r="F88" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>363</v>
+      </c>
+      <c r="B89" t="s">
+        <v>422</v>
+      </c>
+      <c r="C89" t="s">
+        <v>423</v>
+      </c>
+      <c r="D89" t="s">
+        <v>424</v>
+      </c>
+      <c r="E89" t="s">
+        <v>425</v>
+      </c>
+      <c r="F89" t="s">
+        <v>412</v>
+      </c>
+      <c r="G89" t="s">
+        <v>416</v>
+      </c>
+      <c r="H89" t="s">
+        <v>426</v>
+      </c>
+      <c r="I89" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>364</v>
+      </c>
+      <c r="B90" t="s">
+        <v>427</v>
+      </c>
+      <c r="C90" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>365</v>
+      </c>
+      <c r="B91" t="s">
+        <v>428</v>
+      </c>
+      <c r="C91" t="s">
+        <v>414</v>
+      </c>
+      <c r="D91" t="s">
+        <v>416</v>
+      </c>
+      <c r="E91" t="s">
+        <v>401</v>
+      </c>
+      <c r="F91" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>367</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/ingredients.xlsx
+++ b/ingredients.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Desktop\Eddie's Quiz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bcorrell\Desktop\Eddie's Quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D54E5047-F4CD-4AFB-86BC-BCDB7F500096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D45EF71-ADE5-4450-B07D-1C35D7B4439A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="big ingredients" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="445">
   <si>
     <t>beef tips</t>
   </si>
@@ -1307,12 +1307,60 @@
   </si>
   <si>
     <t>choice of flavored ice cream</t>
+  </si>
+  <si>
+    <t>kidsSalmon</t>
+  </si>
+  <si>
+    <t>kidsFilet</t>
+  </si>
+  <si>
+    <t>kidsBurger</t>
+  </si>
+  <si>
+    <t>chicken fingers</t>
+  </si>
+  <si>
+    <t>french fries*</t>
+  </si>
+  <si>
+    <t>garlic mashed potatoes*</t>
+  </si>
+  <si>
+    <t>fresh fruit*</t>
+  </si>
+  <si>
+    <t>chips*</t>
+  </si>
+  <si>
+    <t>raw broccoli*</t>
+  </si>
+  <si>
+    <t>steamed broccoli*</t>
+  </si>
+  <si>
+    <t>chicken*</t>
+  </si>
+  <si>
+    <t>macaroni and cheese</t>
+  </si>
+  <si>
+    <t>grilled salmon filet</t>
+  </si>
+  <si>
+    <t>lemon wedge</t>
+  </si>
+  <si>
+    <t>tenderloin medallion</t>
+  </si>
+  <si>
+    <t>prime hamburger</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1857,25 +1905,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:P96" totalsRowShown="0">
-  <autoFilter ref="A1:P96"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:P96" totalsRowShown="0">
+  <autoFilter ref="A1:P96" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="16">
-    <tableColumn id="1" name="Dish Name (variable)"/>
-    <tableColumn id="2" name="Ingredient 1"/>
-    <tableColumn id="3" name="Ingredient 2"/>
-    <tableColumn id="4" name="Ingredient 3"/>
-    <tableColumn id="5" name="Ingredient 4"/>
-    <tableColumn id="6" name="Ingredient 5"/>
-    <tableColumn id="7" name="Ingredient 6"/>
-    <tableColumn id="8" name="Ingredient 7"/>
-    <tableColumn id="9" name="Ingredient 8"/>
-    <tableColumn id="10" name="Ingredient 9"/>
-    <tableColumn id="11" name="Ingredient 10"/>
-    <tableColumn id="12" name="Ingredient 11"/>
-    <tableColumn id="13" name="Ingredient 12"/>
-    <tableColumn id="14" name="Ingredient 13"/>
-    <tableColumn id="15" name="Ingredient 14"/>
-    <tableColumn id="16" name="Ingredient 15"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Dish Name (variable)"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Ingredient 1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Ingredient 2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Ingredient 3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Ingredient 4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Ingredient 5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Ingredient 6"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Ingredient 7"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Ingredient 8"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Ingredient 9"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Ingredient 10"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Ingredient 11"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Ingredient 12"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Ingredient 13"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Ingredient 14"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Ingredient 15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2177,11 +2225,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P93"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94:P94"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96:J96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2190,7 +2238,7 @@
     <col min="2" max="2" width="44" customWidth="1"/>
     <col min="3" max="3" width="41.140625" customWidth="1"/>
     <col min="4" max="4" width="48.42578125" customWidth="1"/>
-    <col min="5" max="5" width="30.42578125" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" customWidth="1"/>
     <col min="6" max="6" width="40.7109375" customWidth="1"/>
     <col min="7" max="7" width="32.85546875" customWidth="1"/>
     <col min="8" max="8" width="32.7109375" customWidth="1"/>
@@ -4512,10 +4560,157 @@
       <c r="A92" t="s">
         <v>366</v>
       </c>
+      <c r="B92" t="s">
+        <v>432</v>
+      </c>
+      <c r="C92" t="s">
+        <v>433</v>
+      </c>
+      <c r="D92" t="s">
+        <v>434</v>
+      </c>
+      <c r="E92" t="s">
+        <v>434</v>
+      </c>
+      <c r="F92" t="s">
+        <v>435</v>
+      </c>
+      <c r="G92" t="s">
+        <v>436</v>
+      </c>
+      <c r="H92" t="s">
+        <v>437</v>
+      </c>
+      <c r="I92" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>367</v>
+      </c>
+      <c r="B93" t="s">
+        <v>440</v>
+      </c>
+      <c r="C93" t="s">
+        <v>439</v>
+      </c>
+      <c r="D93" t="s">
+        <v>433</v>
+      </c>
+      <c r="E93" t="s">
+        <v>434</v>
+      </c>
+      <c r="F93" t="s">
+        <v>434</v>
+      </c>
+      <c r="G93" t="s">
+        <v>435</v>
+      </c>
+      <c r="H93" t="s">
+        <v>436</v>
+      </c>
+      <c r="I93" t="s">
+        <v>437</v>
+      </c>
+      <c r="J93" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>429</v>
+      </c>
+      <c r="B94" t="s">
+        <v>441</v>
+      </c>
+      <c r="C94" t="s">
+        <v>442</v>
+      </c>
+      <c r="D94" t="s">
+        <v>433</v>
+      </c>
+      <c r="E94" t="s">
+        <v>434</v>
+      </c>
+      <c r="F94" t="s">
+        <v>434</v>
+      </c>
+      <c r="G94" t="s">
+        <v>435</v>
+      </c>
+      <c r="H94" t="s">
+        <v>436</v>
+      </c>
+      <c r="I94" t="s">
+        <v>437</v>
+      </c>
+      <c r="J94" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>430</v>
+      </c>
+      <c r="B95" t="s">
+        <v>443</v>
+      </c>
+      <c r="C95" t="s">
+        <v>61</v>
+      </c>
+      <c r="D95" t="s">
+        <v>433</v>
+      </c>
+      <c r="E95" t="s">
+        <v>434</v>
+      </c>
+      <c r="F95" t="s">
+        <v>434</v>
+      </c>
+      <c r="G95" t="s">
+        <v>435</v>
+      </c>
+      <c r="H95" t="s">
+        <v>436</v>
+      </c>
+      <c r="I95" t="s">
+        <v>437</v>
+      </c>
+      <c r="J95" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>431</v>
+      </c>
+      <c r="B96" t="s">
+        <v>444</v>
+      </c>
+      <c r="C96" t="s">
+        <v>61</v>
+      </c>
+      <c r="D96" t="s">
+        <v>433</v>
+      </c>
+      <c r="E96" t="s">
+        <v>434</v>
+      </c>
+      <c r="F96" t="s">
+        <v>434</v>
+      </c>
+      <c r="G96" t="s">
+        <v>435</v>
+      </c>
+      <c r="H96" t="s">
+        <v>436</v>
+      </c>
+      <c r="I96" t="s">
+        <v>437</v>
+      </c>
+      <c r="J96" t="s">
+        <v>438</v>
       </c>
     </row>
   </sheetData>

--- a/ingredients.xlsx
+++ b/ingredients.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bcorrell\Desktop\Eddie's Quiz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Desktop\Eddie's Quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D45EF71-ADE5-4450-B07D-1C35D7B4439A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BB6532-D168-495E-BCED-B7961CA89076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="big ingredients" sheetId="1" r:id="rId1"/>
+    <sheet name="Ingredients" sheetId="1" r:id="rId1"/>
+    <sheet name="Portions, Sizes, and Weights" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="577">
   <si>
     <t>beef tips</t>
   </si>
@@ -76,9 +77,6 @@
     <t>diced red onion</t>
   </si>
   <si>
-    <t>red onion</t>
-  </si>
-  <si>
     <t>toasted almonds</t>
   </si>
   <si>
@@ -94,9 +92,6 @@
     <t>gargonzola</t>
   </si>
   <si>
-    <t>diced cherrywood smoked bacon lardons</t>
-  </si>
-  <si>
     <t>diced cherrywood smoked bacon</t>
   </si>
   <si>
@@ -118,9 +113,6 @@
     <t>garlic</t>
   </si>
   <si>
-    <t>onion</t>
-  </si>
-  <si>
     <t>ginger</t>
   </si>
   <si>
@@ -166,9 +158,6 @@
     <t>horseradish</t>
   </si>
   <si>
-    <t>southern comfort barbeque sauce</t>
-  </si>
-  <si>
     <t>chopped parsley</t>
   </si>
   <si>
@@ -262,9 +251,6 @@
     <t>worcestershire sauce</t>
   </si>
   <si>
-    <t>small jumbo lump crab</t>
-  </si>
-  <si>
     <t>yellow corn</t>
   </si>
   <si>
@@ -310,18 +296,6 @@
     <t>dry chorizo</t>
   </si>
   <si>
-    <t>wheel cut manchego</t>
-  </si>
-  <si>
-    <t>pie cut parmesan</t>
-  </si>
-  <si>
-    <t>pie cut gargonzola</t>
-  </si>
-  <si>
-    <t>triangle gruyere</t>
-  </si>
-  <si>
     <t>wheel cut manchego cheese</t>
   </si>
   <si>
@@ -334,9 +308,6 @@
     <t>triangle gruyere cheese</t>
   </si>
   <si>
-    <t>barbeque shrimp</t>
-  </si>
-  <si>
     <t>maryland crab cakes</t>
   </si>
   <si>
@@ -697,18 +668,12 @@
     <t>toasted bun</t>
   </si>
   <si>
-    <t>choice of cheddar, gruyere, or gargonzola cheese</t>
-  </si>
-  <si>
     <t>tomato slice</t>
   </si>
   <si>
     <t>pickle spear</t>
   </si>
   <si>
-    <t>choice of chips or french fries</t>
-  </si>
-  <si>
     <t>ms 9+ filet mignon</t>
   </si>
   <si>
@@ -844,15 +809,9 @@
     <t>tarragon</t>
   </si>
   <si>
-    <t>cracked peppercorns</t>
-  </si>
-  <si>
     <t>veal sauce</t>
   </si>
   <si>
-    <t>parsley</t>
-  </si>
-  <si>
     <t>gorgonzola cheese</t>
   </si>
   <si>
@@ -1087,9 +1046,6 @@
     <t>mixedGrill</t>
   </si>
   <si>
-    <t>marylandCrabCake</t>
-  </si>
-  <si>
     <t>crabLegsEnhance</t>
   </si>
   <si>
@@ -1180,18 +1136,12 @@
     <t>bearnaise sauce</t>
   </si>
   <si>
-    <t>8/10 count colossal shrimp</t>
-  </si>
-  <si>
     <t>16/20 count shrimp</t>
   </si>
   <si>
     <t>del mar crab</t>
   </si>
   <si>
-    <t>whole grain mustard dijonnaise</t>
-  </si>
-  <si>
     <t>16/20 shrimp</t>
   </si>
   <si>
@@ -1222,9 +1172,6 @@
     <t>vanilla cognac</t>
   </si>
   <si>
-    <t>vanilla bean crème anglaise</t>
-  </si>
-  <si>
     <t>hot fudge</t>
   </si>
   <si>
@@ -1355,6 +1302,456 @@
   </si>
   <si>
     <t>prime hamburger</t>
+  </si>
+  <si>
+    <t>diced red onions</t>
+  </si>
+  <si>
+    <t>sweetSpicy</t>
+  </si>
+  <si>
+    <t>sweet chile sauce</t>
+  </si>
+  <si>
+    <t>hot mustard sauce</t>
+  </si>
+  <si>
+    <t>crabMix</t>
+  </si>
+  <si>
+    <t>cornRelish</t>
+  </si>
+  <si>
+    <t>remoulade</t>
+  </si>
+  <si>
+    <t>bisque</t>
+  </si>
+  <si>
+    <t>delMarCrab</t>
+  </si>
+  <si>
+    <t>dijonnaise</t>
+  </si>
+  <si>
+    <t>andouilleGravy</t>
+  </si>
+  <si>
+    <t>gargonzola cheese*</t>
+  </si>
+  <si>
+    <t>gruyere cheese*</t>
+  </si>
+  <si>
+    <t>cheddar cheese*</t>
+  </si>
+  <si>
+    <t>wheel cut manchego*</t>
+  </si>
+  <si>
+    <t>pie cut parmesan*</t>
+  </si>
+  <si>
+    <t>pie cut gargonzola*</t>
+  </si>
+  <si>
+    <t>triangle gruyere*</t>
+  </si>
+  <si>
+    <t>blackenedSeasoning</t>
+  </si>
+  <si>
+    <t>asianGinger</t>
+  </si>
+  <si>
+    <t>cornPoblano</t>
+  </si>
+  <si>
+    <t>mojoSauce</t>
+  </si>
+  <si>
+    <t>furikake</t>
+  </si>
+  <si>
+    <t>ahiVegetables</t>
+  </si>
+  <si>
+    <t>gingerMirin</t>
+  </si>
+  <si>
+    <t>crab cakes</t>
+  </si>
+  <si>
+    <t>corn relush</t>
+  </si>
+  <si>
+    <t>sriracha sauce</t>
+  </si>
+  <si>
+    <t>crabCakeEnhance</t>
+  </si>
+  <si>
+    <t>king crab corn bisque</t>
+  </si>
+  <si>
+    <t>choice of dressing</t>
+  </si>
+  <si>
+    <t>special crab meat</t>
+  </si>
+  <si>
+    <t>whole grained mustard dijonnaise</t>
+  </si>
+  <si>
+    <t>green peppers</t>
+  </si>
+  <si>
+    <t>flour</t>
+  </si>
+  <si>
+    <t>Ingredient 16</t>
+  </si>
+  <si>
+    <t>kitchen bouquet</t>
+  </si>
+  <si>
+    <t>dry basil</t>
+  </si>
+  <si>
+    <t>dry oregano</t>
+  </si>
+  <si>
+    <t>onion powder</t>
+  </si>
+  <si>
+    <t>sugar</t>
+  </si>
+  <si>
+    <t>dry thyme</t>
+  </si>
+  <si>
+    <t>green chiles</t>
+  </si>
+  <si>
+    <t>chili powder</t>
+  </si>
+  <si>
+    <t>cumin</t>
+  </si>
+  <si>
+    <t>long grain rice</t>
+  </si>
+  <si>
+    <t>chicken stock</t>
+  </si>
+  <si>
+    <t>orange zest</t>
+  </si>
+  <si>
+    <t>orange juice</t>
+  </si>
+  <si>
+    <t>lime juice</t>
+  </si>
+  <si>
+    <t>nori</t>
+  </si>
+  <si>
+    <t>sesame seeds</t>
+  </si>
+  <si>
+    <t>lime zest</t>
+  </si>
+  <si>
+    <t>lemon zest</t>
+  </si>
+  <si>
+    <t>chili flakes</t>
+  </si>
+  <si>
+    <t>red bell peppers</t>
+  </si>
+  <si>
+    <t>mirin</t>
+  </si>
+  <si>
+    <t>soy ginger</t>
+  </si>
+  <si>
+    <t>mignonette</t>
+  </si>
+  <si>
+    <t>sweet chili sauce</t>
+  </si>
+  <si>
+    <t>wasabi powder</t>
+  </si>
+  <si>
+    <t>pickled ginger</t>
+  </si>
+  <si>
+    <t>champagne vinegar</t>
+  </si>
+  <si>
+    <t>sparkling wine</t>
+  </si>
+  <si>
+    <t>granny smith apples</t>
+  </si>
+  <si>
+    <t>vanilla bean creme anglaise</t>
+  </si>
+  <si>
+    <t>southern comfort barbecue sauce</t>
+  </si>
+  <si>
+    <t>barbecue shrimp</t>
+  </si>
+  <si>
+    <t>How many ounces are each crab cake?</t>
+  </si>
+  <si>
+    <t>How many crab cakes come with the maryland crab cake appetizer?</t>
+  </si>
+  <si>
+    <t>How many oysters come with the charbroiled oysters appetizer?</t>
+  </si>
+  <si>
+    <t>How many oysters come with the oysters rockefeller appetizer?</t>
+  </si>
+  <si>
+    <t>How many oysters come with the oysters on the half shell appetizer?</t>
+  </si>
+  <si>
+    <t>How many shrimp come with the Eddie's shrimp cocktail appetizer?</t>
+  </si>
+  <si>
+    <t>How many shrimp come with the barbecue shrimp appetizer?</t>
+  </si>
+  <si>
+    <t>How many ounces of yellowfin tuna come with the ahi tuna poke appetizer?</t>
+  </si>
+  <si>
+    <t>How many ounces of calamari rings come with the calamari appetizer?</t>
+  </si>
+  <si>
+    <t>How many ounces of shrimp come with the sweet and spicy shrimp appetizer?</t>
+  </si>
+  <si>
+    <t>How many types of cheese does the charcuterie and cheese plate appetizer come with (not how many can be chosen from)?</t>
+  </si>
+  <si>
+    <t>How many types of meat does the charcuterie and cheese plate appetizer come with?</t>
+  </si>
+  <si>
+    <t>How many types of cheese does the cheese plate appetizer come with?</t>
+  </si>
+  <si>
+    <t>How many barbecue shrimp come with the hot appetizer platter?</t>
+  </si>
+  <si>
+    <t>How many crab cakes come with the hot appetizer platter?</t>
+  </si>
+  <si>
+    <t>How many potstickers come with the hot appetizer platter?</t>
+  </si>
+  <si>
+    <t>How many pot stickers come with the filet mignon potstickers appetizer?</t>
+  </si>
+  <si>
+    <t>How many ounces of beef tenderloin come with the carpaccio appetizer?</t>
+  </si>
+  <si>
+    <t>How many cocktail shrimp come with the chilled appetizer platter?</t>
+  </si>
+  <si>
+    <t>How many cocktail oysters on the half shell come with the chilled appetizer platter?</t>
+  </si>
+  <si>
+    <t>How many slices of yellowfin tuna come with the chilled appetizer platter?</t>
+  </si>
+  <si>
+    <t>How many ounces does the french onion soup bowl come in?</t>
+  </si>
+  <si>
+    <t>How many ounces does the king crab and corn bisque bowl come in?</t>
+  </si>
+  <si>
+    <t>How many ounces does the baked potato weigh?</t>
+  </si>
+  <si>
+    <t>How many ounces of asparagus come with the asparagus spears (steamed) side?</t>
+  </si>
+  <si>
+    <t>How many ounces of asparagus come with the tempura asparagus side?</t>
+  </si>
+  <si>
+    <t>How many ounces of grean beans come with the tempura beans side?</t>
+  </si>
+  <si>
+    <t>What sizes (in ounces) are available for the filet mignon?</t>
+  </si>
+  <si>
+    <t>What sizes (in ounces) are available for the prime new york strip?</t>
+  </si>
+  <si>
+    <t>What sizes (in ounces) are available for the prime ribeye?</t>
+  </si>
+  <si>
+    <t>What sizes (in ounces) are available for the bourbon ribeye?</t>
+  </si>
+  <si>
+    <t>How many ounces does a filet medallion weigh?</t>
+  </si>
+  <si>
+    <t>How many sautéed shrimp come with the filet del mar entrée?</t>
+  </si>
+  <si>
+    <t>How many ounces of aundouille sausage come with the new orleans mixed grill entrée?</t>
+  </si>
+  <si>
+    <t>What sizes (in ounces) are available for the bison filet?</t>
+  </si>
+  <si>
+    <t>What sizes (in ounces) are available for the bison ribeye?</t>
+  </si>
+  <si>
+    <t>18*</t>
+  </si>
+  <si>
+    <t>How many ounces does the prime beef patty weigh?</t>
+  </si>
+  <si>
+    <t>What sizes (in ounces) are available for the wagyu filet?</t>
+  </si>
+  <si>
+    <t>What sizes (in ounces) are available for the wagyu ribeye?</t>
+  </si>
+  <si>
+    <t>How many ounces of lobster meat and langoustine meat (combined) come with the lobster macaroni and cheese?</t>
+  </si>
+  <si>
+    <t>How many ounces of lobster meat and langoustine meat (combined) come with the lobster mashed potatoes?</t>
+  </si>
+  <si>
+    <t>How many ounces of sixty south salmon come with the cedar plank roasted salmon entrée?</t>
+  </si>
+  <si>
+    <t>How many ounces of sixty south salmon come with the grilled salmon entrée?</t>
+  </si>
+  <si>
+    <t>How many ounces of sixty south salmon come with the blackened salmon entrée?</t>
+  </si>
+  <si>
+    <t>How many shrimp come with the mojo shrimp and scallops entrée?</t>
+  </si>
+  <si>
+    <t>How many scallops come with the mojo shrimp and scallops entrée?</t>
+  </si>
+  <si>
+    <t>What is the size of the shrimp that come with the mojo shrimp and scallops entrée?</t>
+  </si>
+  <si>
+    <t>8/12 count</t>
+  </si>
+  <si>
+    <t>What is the size of the scallops that come with the mojo shrimp and scallops entrée?</t>
+  </si>
+  <si>
+    <t>U-15</t>
+  </si>
+  <si>
+    <t>What is the size of the shrimp the come with the sweet and spicy shrimp appetizer?</t>
+  </si>
+  <si>
+    <t>70/90 count</t>
+  </si>
+  <si>
+    <t>What is the size of the shrimp the come with the barbecue shrimp appetizer?</t>
+  </si>
+  <si>
+    <t>8/10 count</t>
+  </si>
+  <si>
+    <t>jumbo</t>
+  </si>
+  <si>
+    <t>How many ounces of tuna come with the yellowfin tuna steak entrée?</t>
+  </si>
+  <si>
+    <t>How many ounces of bass come with the sea bass entrée?</t>
+  </si>
+  <si>
+    <t>What sizes (in ounces) are available for the galapagos island cold water lobster tail?</t>
+  </si>
+  <si>
+    <t>How many chicken breasts come with the lemon-dijon chicken entrée?</t>
+  </si>
+  <si>
+    <t>How many ounces (each) do the chicken breasts that come with the lemon-dijon chicken entrée weigh?</t>
+  </si>
+  <si>
+    <t>How many asparagus spears come with the lemon-dijon chicken entrée?</t>
+  </si>
+  <si>
+    <t>How many ounces of lobster meat and langoustine meat (combined) come with the maxwell style topping enhancement?</t>
+  </si>
+  <si>
+    <t>How many ounces of small jumbo lump crabmeat come with the oscar style topping enhancement?</t>
+  </si>
+  <si>
+    <t>How many asparagus spears come with the maxwell style topping enhancement?</t>
+  </si>
+  <si>
+    <t>How many asparagus spears come with the oscar style topping enhancement?</t>
+  </si>
+  <si>
+    <t>What is the size of the shrimp the come with the barbecue shrimp?</t>
+  </si>
+  <si>
+    <t>How many shrimp come with the bacon wrapped shrimp enhancement?</t>
+  </si>
+  <si>
+    <t>What is the size of the shrimp that comes with the bacon wrapped shrimp enhancement?</t>
+  </si>
+  <si>
+    <t>What is the size of the shrimp that come with the crab and shrimp del mar enhancement?</t>
+  </si>
+  <si>
+    <t>16/20 count</t>
+  </si>
+  <si>
+    <t>How many shrimp come with the crab and shrimp del mar enhancement?</t>
+  </si>
+  <si>
+    <t>How many ounces of del mar crab come with the crab and shrimp del mar enhancement?</t>
+  </si>
+  <si>
+    <t>What is the size of the shrimp that come with the mixed grill enhancement?</t>
+  </si>
+  <si>
+    <t>How many shrimp come with the mixed grill enhancement?</t>
+  </si>
+  <si>
+    <t>How many ounces of andouille sausage come with the mixed grill enhancement?</t>
+  </si>
+  <si>
+    <t>How many crab cakes come with the maryland crab cake enhancement?</t>
+  </si>
+  <si>
+    <t>What sizes (in ounces) are available for the red king crab legs?</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Answer 1</t>
+  </si>
+  <si>
+    <t>Answer 2</t>
+  </si>
+  <si>
+    <t>Answer 3</t>
   </si>
 </sst>
 </file>
@@ -1905,9 +2302,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:P96" totalsRowShown="0">
-  <autoFilter ref="A1:P96" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:Q112" totalsRowShown="0">
+  <autoFilter ref="A1:Q112" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+  <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Dish Name (variable)"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Ingredient 1"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Ingredient 2"/>
@@ -1922,8 +2319,22 @@
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Ingredient 11"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Ingredient 12"/>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Ingredient 13"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Ingredient 14"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Ingredient 15"/>
+    <tableColumn id="17" xr3:uid="{B6F62E3C-5EDF-45DF-9080-377824DE0995}" name="Ingredient 14"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Ingredient 15"/>
+    <tableColumn id="16" xr3:uid="{C27945A1-20C8-437A-8F72-5C268078D79A}" name="Ingredient 16"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B5BBD9A2-F715-4FB9-870F-963C6BAE09F8}" name="Table1" displayName="Table1" ref="A1:D72" totalsRowShown="0">
+  <autoFilter ref="A1:D72" xr:uid="{B5BBD9A2-F715-4FB9-870F-963C6BAE09F8}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{49352AC0-5319-4E4B-8C8E-E9D7B71E8841}" name="Question"/>
+    <tableColumn id="2" xr3:uid="{42BF47D9-A6F5-4586-90EA-1E68001CD283}" name="Answer 1"/>
+    <tableColumn id="3" xr3:uid="{A975A720-6D79-41A4-B3DD-A621AE43792B}" name="Answer 2"/>
+    <tableColumn id="4" xr3:uid="{ACEC42AE-F60D-4B9F-9802-892C18DC3BC7}" name="Answer 3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2226,10 +2637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P96"/>
+  <dimension ref="A1:Q112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96:J96"/>
+    <sheetView topLeftCell="A96" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2247,86 +2658,90 @@
     <col min="11" max="11" width="25.85546875" customWidth="1"/>
     <col min="12" max="14" width="20.7109375" customWidth="1"/>
     <col min="15" max="15" width="21.85546875" customWidth="1"/>
-    <col min="16" max="16" width="20.7109375" customWidth="1"/>
+    <col min="16" max="16" width="19" customWidth="1"/>
+    <col min="17" max="17" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F1" t="s">
+        <v>358</v>
+      </c>
+      <c r="G1" t="s">
+        <v>359</v>
+      </c>
+      <c r="H1" t="s">
+        <v>360</v>
+      </c>
+      <c r="I1" t="s">
+        <v>361</v>
+      </c>
+      <c r="J1" t="s">
+        <v>362</v>
+      </c>
+      <c r="K1" t="s">
+        <v>363</v>
+      </c>
+      <c r="L1" t="s">
+        <v>364</v>
+      </c>
+      <c r="M1" t="s">
+        <v>365</v>
+      </c>
+      <c r="N1" t="s">
+        <v>366</v>
+      </c>
+      <c r="O1" t="s">
+        <v>367</v>
+      </c>
+      <c r="P1" t="s">
         <v>368</v>
       </c>
-      <c r="B1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C1" t="s">
-        <v>370</v>
-      </c>
-      <c r="D1" t="s">
-        <v>371</v>
-      </c>
-      <c r="E1" t="s">
-        <v>372</v>
-      </c>
-      <c r="F1" t="s">
-        <v>373</v>
-      </c>
-      <c r="G1" t="s">
-        <v>374</v>
-      </c>
-      <c r="H1" t="s">
-        <v>375</v>
-      </c>
-      <c r="I1" t="s">
-        <v>376</v>
-      </c>
-      <c r="J1" t="s">
-        <v>377</v>
-      </c>
-      <c r="K1" t="s">
-        <v>378</v>
-      </c>
-      <c r="L1" t="s">
-        <v>379</v>
-      </c>
-      <c r="M1" t="s">
-        <v>380</v>
-      </c>
-      <c r="N1" t="s">
-        <v>381</v>
-      </c>
-      <c r="O1" t="s">
-        <v>382</v>
-      </c>
-      <c r="P1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
         <v>31</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" t="s">
-        <v>34</v>
       </c>
       <c r="J2" t="s">
         <v>9</v>
@@ -2338,504 +2753,444 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>284</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
         <v>36</v>
       </c>
-      <c r="C4" t="s">
+      <c r="G4" t="s">
         <v>37</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" t="s">
-        <v>40</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
         <v>40</v>
       </c>
-      <c r="E5" t="s">
-        <v>43</v>
-      </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
       </c>
       <c r="H5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>272</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>493</v>
+      </c>
+      <c r="F6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>286</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B7" t="s">
         <v>46</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>47</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D7" t="s">
         <v>48</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>287</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B8" t="s">
         <v>50</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>51</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
         <v>52</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F8" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>288</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="G8" t="s">
         <v>54</v>
       </c>
-      <c r="C8" t="s">
+      <c r="H8" t="s">
         <v>55</v>
       </c>
-      <c r="D8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" t="s">
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>275</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
         <v>56</v>
       </c>
-      <c r="F8" t="s">
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
         <v>57</v>
       </c>
-      <c r="G8" t="s">
+      <c r="F9" t="s">
         <v>58</v>
       </c>
-      <c r="H8" t="s">
+      <c r="G9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>289</v>
-      </c>
-      <c r="B9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" t="s">
         <v>60</v>
       </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>277</v>
+      </c>
+      <c r="B11" t="s">
         <v>61</v>
       </c>
-      <c r="F9" t="s">
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
         <v>62</v>
       </c>
-      <c r="G9" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>290</v>
-      </c>
-      <c r="B10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="E11" t="s">
         <v>63</v>
-      </c>
-      <c r="D10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>291</v>
-      </c>
-      <c r="B11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" t="s">
-        <v>67</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
       </c>
       <c r="G11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11" t="s">
         <v>68</v>
       </c>
-      <c r="H11" t="s">
+      <c r="M11" t="s">
+        <v>45</v>
+      </c>
+      <c r="N11" t="s">
         <v>69</v>
       </c>
-      <c r="I11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J11" t="s">
-        <v>62</v>
-      </c>
-      <c r="K11" t="s">
-        <v>71</v>
-      </c>
-      <c r="L11" t="s">
-        <v>72</v>
-      </c>
-      <c r="M11" t="s">
-        <v>49</v>
-      </c>
-      <c r="N11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>452</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>453</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" t="s">
-        <v>78</v>
-      </c>
-      <c r="H12" t="s">
-        <v>71</v>
-      </c>
-      <c r="I12" t="s">
-        <v>79</v>
-      </c>
-      <c r="J12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>279</v>
+      </c>
+      <c r="B13" t="s">
         <v>80</v>
       </c>
-      <c r="K12" t="s">
+      <c r="C13" t="s">
         <v>81</v>
       </c>
-      <c r="L12" t="s">
-        <v>18</v>
-      </c>
-      <c r="M12" t="s">
+      <c r="D13" t="s">
         <v>82</v>
       </c>
-      <c r="N12" t="s">
-        <v>49</v>
-      </c>
-      <c r="O12" t="s">
+      <c r="E13" t="s">
         <v>83</v>
       </c>
-      <c r="P12" t="s">
+      <c r="F13" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>293</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="G13" t="s">
         <v>85</v>
       </c>
-      <c r="C13" t="s">
+      <c r="H13" t="s">
+        <v>427</v>
+      </c>
+      <c r="I13" t="s">
         <v>86</v>
       </c>
-      <c r="D13" t="s">
+      <c r="J13" t="s">
         <v>87</v>
       </c>
-      <c r="E13" t="s">
+      <c r="K13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>280</v>
+      </c>
+      <c r="B14" t="s">
         <v>88</v>
       </c>
-      <c r="F13" t="s">
+      <c r="C14" t="s">
         <v>89</v>
       </c>
-      <c r="G13" t="s">
+      <c r="D14" t="s">
         <v>90</v>
       </c>
-      <c r="H13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="E14" t="s">
+        <v>441</v>
+      </c>
+      <c r="F14" t="s">
+        <v>442</v>
+      </c>
+      <c r="G14" t="s">
+        <v>443</v>
+      </c>
+      <c r="H14" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>281</v>
+      </c>
+      <c r="B15" t="s">
         <v>91</v>
       </c>
-      <c r="J13" t="s">
+      <c r="C15" t="s">
         <v>92</v>
       </c>
-      <c r="K13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>294</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="D15" t="s">
         <v>93</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E15" t="s">
         <v>94</v>
       </c>
-      <c r="D14" t="s">
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>282</v>
+      </c>
+      <c r="B16" t="s">
+        <v>494</v>
+      </c>
+      <c r="C16" t="s">
         <v>95</v>
       </c>
-      <c r="E14" t="s">
+      <c r="D16" t="s">
         <v>96</v>
-      </c>
-      <c r="F14" t="s">
-        <v>97</v>
-      </c>
-      <c r="G14" t="s">
-        <v>98</v>
-      </c>
-      <c r="H14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>295</v>
-      </c>
-      <c r="B15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" t="s">
-        <v>101</v>
-      </c>
-      <c r="D15" t="s">
-        <v>102</v>
-      </c>
-      <c r="E15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>296</v>
-      </c>
-      <c r="B16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="B17" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D17" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="G18" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="H18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I18" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="J18" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K18" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="L18" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="M18" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="N18" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="B19" t="s">
-        <v>120</v>
+        <v>456</v>
       </c>
       <c r="C19" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D19" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="E19" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" t="s">
-        <v>122</v>
-      </c>
-      <c r="G19" t="s">
-        <v>123</v>
-      </c>
-      <c r="H19" t="s">
-        <v>124</v>
-      </c>
-      <c r="I19" t="s">
-        <v>125</v>
-      </c>
-      <c r="J19" t="s">
-        <v>88</v>
-      </c>
-      <c r="K19" t="s">
-        <v>126</v>
-      </c>
-      <c r="L19" t="s">
-        <v>127</v>
-      </c>
-      <c r="M19" t="s">
-        <v>128</v>
-      </c>
-      <c r="N19" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="B20" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="B21" t="s">
         <v>2</v>
@@ -2844,44 +3199,47 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="G21" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="H21" t="s">
-        <v>133</v>
+        <v>123</v>
+      </c>
+      <c r="I21" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E22" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="F22" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="B23" t="s">
         <v>2</v>
@@ -2890,7 +3248,7 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
@@ -2899,7 +3257,7 @@
         <v>10</v>
       </c>
       <c r="G23" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="H23" t="s">
         <v>5</v>
@@ -2911,15 +3269,15 @@
         <v>17</v>
       </c>
       <c r="K23" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="L23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -2928,77 +3286,77 @@
         <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="B25" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C25" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D25" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E25" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="F25" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="B26" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C26" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D26" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F26" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="G26" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="H26" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="I26" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="J26" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K26" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="L26" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M26" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -3006,572 +3364,572 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="E27" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="F27" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="G27" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="H27" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="I27" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="B28" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C28" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D28" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E28" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F28" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G28" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="H28" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="B29" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E29" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="F29" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="G29" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H29" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="I29" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="J29" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="K29" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="L29" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="B30" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D30" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E30" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="F30" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="G30" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H30" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I30" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="J30" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="K30" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="L30" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="B31" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C31" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D31" t="s">
+        <v>145</v>
+      </c>
+      <c r="E31" t="s">
+        <v>153</v>
+      </c>
+      <c r="F31" t="s">
+        <v>115</v>
+      </c>
+      <c r="G31" t="s">
+        <v>106</v>
+      </c>
+      <c r="H31" t="s">
+        <v>146</v>
+      </c>
+      <c r="I31" t="s">
+        <v>154</v>
+      </c>
+      <c r="J31" t="s">
+        <v>83</v>
+      </c>
+      <c r="K31" t="s">
+        <v>101</v>
+      </c>
+      <c r="L31" t="s">
+        <v>114</v>
+      </c>
+      <c r="M31" t="s">
+        <v>134</v>
+      </c>
+      <c r="N31" t="s">
         <v>155</v>
       </c>
-      <c r="E31" t="s">
-        <v>163</v>
-      </c>
-      <c r="F31" t="s">
-        <v>125</v>
-      </c>
-      <c r="G31" t="s">
-        <v>116</v>
-      </c>
-      <c r="H31" t="s">
-        <v>156</v>
-      </c>
-      <c r="I31" t="s">
-        <v>164</v>
-      </c>
-      <c r="J31" t="s">
-        <v>88</v>
-      </c>
-      <c r="K31" t="s">
-        <v>111</v>
-      </c>
-      <c r="L31" t="s">
-        <v>124</v>
-      </c>
-      <c r="M31" t="s">
-        <v>144</v>
-      </c>
-      <c r="N31" t="s">
-        <v>165</v>
-      </c>
       <c r="O31" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="B32" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C33" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D33" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="E33" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="G33" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="B34" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C34" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D34" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="E34" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="G34" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="H34" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="I34" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="J34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="B35" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C35" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="D35" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E35" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F35" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="B36" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C36" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="D36" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E36" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F36" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G36" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="H36" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="B37" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C37" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D37" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E37" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F37" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="G37" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="B38" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C38" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D38" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E38" t="s">
         <v>5</v>
       </c>
       <c r="F38" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="G38" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="H38" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="I38" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="J38" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="K38" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="L38" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="B39" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C39" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D39" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E39" t="s">
         <v>5</v>
       </c>
       <c r="F39" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="G39" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="H39" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="I39" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="J39" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="K39" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="L39" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="M39" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="N39" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="B40" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C40" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="D40" t="s">
         <v>5</v>
       </c>
       <c r="E40" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F40" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G40" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="H40" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="I40" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="B41" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C41" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D41" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E41" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F41" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="G41" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="H41" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="B42" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C42" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D42" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E42" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B43" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C43" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D43" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E43" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="B44" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C44" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="D44" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E44" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F44" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="B45" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C45" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D45" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F45" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="B46" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C46" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D46" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E46" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F46" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G46" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="B47" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C47" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D47" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="E47" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F47" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="G47" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="H47" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="I47" t="s">
         <v>5</v>
@@ -3579,360 +3937,369 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="B48" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C48" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="D48" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="E48" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="F48" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="G48" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H48" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="B49" t="s">
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D49" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E49" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="B50" t="s">
+        <v>192</v>
+      </c>
+      <c r="C50" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>315</v>
+      </c>
+      <c r="B51" t="s">
+        <v>193</v>
+      </c>
+      <c r="C51" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>316</v>
+      </c>
+      <c r="B52" t="s">
+        <v>193</v>
+      </c>
+      <c r="C52" t="s">
+        <v>194</v>
+      </c>
+      <c r="D52" t="s">
+        <v>176</v>
+      </c>
+      <c r="E52" t="s">
+        <v>195</v>
+      </c>
+      <c r="F52" t="s">
+        <v>29</v>
+      </c>
+      <c r="G52" t="s">
+        <v>196</v>
+      </c>
+      <c r="H52" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>317</v>
+      </c>
+      <c r="B53" t="s">
+        <v>197</v>
+      </c>
+      <c r="C53" t="s">
+        <v>198</v>
+      </c>
+      <c r="D53" t="s">
+        <v>199</v>
+      </c>
+      <c r="E53" t="s">
+        <v>200</v>
+      </c>
+      <c r="F53" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>318</v>
+      </c>
+      <c r="B54" t="s">
+        <v>201</v>
+      </c>
+      <c r="C54" t="s">
         <v>202</v>
       </c>
-      <c r="C50" t="s">
-        <v>61</v>
-      </c>
-      <c r="D50" t="s">
-        <v>49</v>
-      </c>
-      <c r="E50" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>329</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="D54" t="s">
         <v>203</v>
       </c>
-      <c r="C51" t="s">
-        <v>61</v>
-      </c>
-      <c r="D51" t="s">
-        <v>49</v>
-      </c>
-      <c r="E51" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>330</v>
-      </c>
-      <c r="B52" t="s">
-        <v>203</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="E54" t="s">
         <v>204</v>
       </c>
-      <c r="D52" t="s">
-        <v>186</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="F54" t="s">
         <v>205</v>
       </c>
-      <c r="F52" t="s">
-        <v>31</v>
-      </c>
-      <c r="G52" t="s">
-        <v>206</v>
-      </c>
-      <c r="H52" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>331</v>
-      </c>
-      <c r="B53" t="s">
-        <v>207</v>
-      </c>
-      <c r="C53" t="s">
-        <v>208</v>
-      </c>
-      <c r="D53" t="s">
-        <v>209</v>
-      </c>
-      <c r="E53" t="s">
-        <v>210</v>
-      </c>
-      <c r="F53" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>332</v>
-      </c>
-      <c r="B54" t="s">
-        <v>211</v>
-      </c>
-      <c r="C54" t="s">
-        <v>212</v>
-      </c>
-      <c r="D54" t="s">
-        <v>213</v>
-      </c>
-      <c r="E54" t="s">
-        <v>214</v>
-      </c>
-      <c r="F54" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="B55" t="s">
         <v>14</v>
       </c>
       <c r="C55" t="s">
+        <v>206</v>
+      </c>
+      <c r="D55" t="s">
+        <v>207</v>
+      </c>
+      <c r="E55" t="s">
+        <v>208</v>
+      </c>
+      <c r="F55" t="s">
+        <v>57</v>
+      </c>
+      <c r="G55" t="s">
+        <v>209</v>
+      </c>
+      <c r="H55" t="s">
+        <v>210</v>
+      </c>
+      <c r="I55" t="s">
+        <v>48</v>
+      </c>
+      <c r="J55" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>320</v>
+      </c>
+      <c r="B56" t="s">
+        <v>211</v>
+      </c>
+      <c r="C56" t="s">
+        <v>57</v>
+      </c>
+      <c r="D56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E56" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>321</v>
+      </c>
+      <c r="B57" t="s">
+        <v>212</v>
+      </c>
+      <c r="C57" t="s">
+        <v>57</v>
+      </c>
+      <c r="D57" t="s">
+        <v>45</v>
+      </c>
+      <c r="E57" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>322</v>
+      </c>
+      <c r="B58" t="s">
+        <v>213</v>
+      </c>
+      <c r="C58" t="s">
+        <v>214</v>
+      </c>
+      <c r="D58" t="s">
+        <v>440</v>
+      </c>
+      <c r="E58" t="s">
+        <v>439</v>
+      </c>
+      <c r="F58" t="s">
+        <v>438</v>
+      </c>
+      <c r="G58" t="s">
+        <v>167</v>
+      </c>
+      <c r="H58" t="s">
+        <v>2</v>
+      </c>
+      <c r="I58" t="s">
+        <v>215</v>
+      </c>
+      <c r="J58" t="s">
+        <v>102</v>
+      </c>
+      <c r="K58" t="s">
         <v>216</v>
       </c>
-      <c r="D55" t="s">
+      <c r="L58" t="s">
+        <v>418</v>
+      </c>
+      <c r="M58" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>323</v>
+      </c>
+      <c r="B59" t="s">
         <v>217</v>
       </c>
-      <c r="E55" t="s">
+      <c r="C59" t="s">
+        <v>57</v>
+      </c>
+      <c r="D59" t="s">
+        <v>48</v>
+      </c>
+      <c r="E59" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>324</v>
+      </c>
+      <c r="B60" t="s">
         <v>218</v>
       </c>
-      <c r="F55" t="s">
-        <v>61</v>
-      </c>
-      <c r="G55" t="s">
+      <c r="C60" t="s">
+        <v>57</v>
+      </c>
+      <c r="D60" t="s">
+        <v>48</v>
+      </c>
+      <c r="E60" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>325</v>
+      </c>
+      <c r="B61" t="s">
         <v>219</v>
       </c>
-      <c r="H55" t="s">
+      <c r="C61" t="s">
         <v>220</v>
       </c>
-      <c r="I55" t="s">
-        <v>52</v>
-      </c>
-      <c r="J55" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>334</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="D61" t="s">
+        <v>57</v>
+      </c>
+      <c r="E61" t="s">
         <v>221</v>
       </c>
-      <c r="C56" t="s">
-        <v>61</v>
-      </c>
-      <c r="D56" t="s">
-        <v>49</v>
-      </c>
-      <c r="E56" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>335</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="F61" t="s">
         <v>222</v>
       </c>
-      <c r="C57" t="s">
-        <v>61</v>
-      </c>
-      <c r="D57" t="s">
-        <v>49</v>
-      </c>
-      <c r="E57" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>336</v>
-      </c>
-      <c r="B58" t="s">
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>326</v>
+      </c>
+      <c r="B62" t="s">
+        <v>219</v>
+      </c>
+      <c r="C62" t="s">
+        <v>57</v>
+      </c>
+      <c r="D62" t="s">
+        <v>221</v>
+      </c>
+      <c r="E62" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>327</v>
+      </c>
+      <c r="B63" t="s">
+        <v>219</v>
+      </c>
+      <c r="C63" t="s">
         <v>223</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D63" t="s">
+        <v>59</v>
+      </c>
+      <c r="E63" t="s">
+        <v>221</v>
+      </c>
+      <c r="F63" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>328</v>
+      </c>
+      <c r="B64" t="s">
         <v>224</v>
       </c>
-      <c r="D58" t="s">
+      <c r="C64" t="s">
         <v>225</v>
       </c>
-      <c r="E58" t="s">
-        <v>177</v>
-      </c>
-      <c r="F58" t="s">
-        <v>2</v>
-      </c>
-      <c r="G58" t="s">
+      <c r="D64" t="s">
         <v>226</v>
       </c>
-      <c r="H58" t="s">
-        <v>18</v>
-      </c>
-      <c r="I58" t="s">
+      <c r="E64" t="s">
         <v>227</v>
       </c>
-      <c r="J58" t="s">
+      <c r="F64" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>337</v>
-      </c>
-      <c r="B59" t="s">
+      <c r="G64" t="s">
         <v>229</v>
       </c>
-      <c r="C59" t="s">
-        <v>61</v>
-      </c>
-      <c r="D59" t="s">
-        <v>52</v>
-      </c>
-      <c r="E59" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>338</v>
-      </c>
-      <c r="B60" t="s">
+      <c r="H64" t="s">
         <v>230</v>
-      </c>
-      <c r="C60" t="s">
-        <v>61</v>
-      </c>
-      <c r="D60" t="s">
-        <v>52</v>
-      </c>
-      <c r="E60" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>339</v>
-      </c>
-      <c r="B61" t="s">
-        <v>231</v>
-      </c>
-      <c r="C61" t="s">
-        <v>232</v>
-      </c>
-      <c r="D61" t="s">
-        <v>61</v>
-      </c>
-      <c r="E61" t="s">
-        <v>233</v>
-      </c>
-      <c r="F61" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>340</v>
-      </c>
-      <c r="B62" t="s">
-        <v>231</v>
-      </c>
-      <c r="C62" t="s">
-        <v>61</v>
-      </c>
-      <c r="D62" t="s">
-        <v>233</v>
-      </c>
-      <c r="E62" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>341</v>
-      </c>
-      <c r="B63" t="s">
-        <v>231</v>
-      </c>
-      <c r="C63" t="s">
-        <v>235</v>
-      </c>
-      <c r="D63" t="s">
-        <v>63</v>
-      </c>
-      <c r="E63" t="s">
-        <v>233</v>
-      </c>
-      <c r="F63" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>342</v>
-      </c>
-      <c r="B64" t="s">
-        <v>236</v>
-      </c>
-      <c r="C64" t="s">
-        <v>237</v>
-      </c>
-      <c r="D64" t="s">
-        <v>238</v>
-      </c>
-      <c r="E64" t="s">
-        <v>239</v>
-      </c>
-      <c r="F64" t="s">
-        <v>240</v>
-      </c>
-      <c r="G64" t="s">
-        <v>241</v>
-      </c>
-      <c r="H64" t="s">
-        <v>242</v>
       </c>
       <c r="I64" t="s">
         <v>13</v>
@@ -3940,356 +4307,356 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="B65" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="C65" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="D65" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="E65" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F65" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="G65" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="H65" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="B66" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="C66" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="D66" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="E66" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="F66" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="G66" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="H66" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="B67" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C67" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D67" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="E67" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="F67" t="s">
+        <v>45</v>
+      </c>
+      <c r="G67" t="s">
         <v>49</v>
       </c>
-      <c r="G67" t="s">
-        <v>53</v>
-      </c>
       <c r="H67" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="B68" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C68" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="D68" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="B69" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="C69" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="D69" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="E69" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="F69" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="G69" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="H69" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="I69" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="J69" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="B70" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="C70" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="D70" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E70" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="F70" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G70" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H70" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="I70" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="J70" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K70" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="L70" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="M70" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N70" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="B71" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C71" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="D71" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="E71" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F71" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="G71" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H71" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="B72" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="C72" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="D72" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E72" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G72" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="H72" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="B73" t="s">
-        <v>274</v>
+        <v>139</v>
       </c>
       <c r="C73" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D73" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="E73" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B74" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C74" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D74" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E74" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="G74" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H74" t="s">
-        <v>276</v>
+        <v>45</v>
       </c>
       <c r="I74" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="J74" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>22</v>
+      </c>
+      <c r="B75" t="s">
+        <v>263</v>
+      </c>
+      <c r="C75" t="s">
         <v>23</v>
       </c>
-      <c r="B75" t="s">
-        <v>277</v>
-      </c>
-      <c r="C75" t="s">
-        <v>25</v>
-      </c>
       <c r="D75" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E75" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="F75" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G75" t="s">
-        <v>276</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="B76" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="C76" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="D76" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="B77" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="C77" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="D77" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="B78" t="s">
-        <v>386</v>
+        <v>43</v>
       </c>
       <c r="C78" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D78" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E78" t="s">
-        <v>48</v>
+        <v>493</v>
       </c>
       <c r="F78" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="B79" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="C79" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="D79" t="s">
-        <v>389</v>
+        <v>459</v>
       </c>
       <c r="E79" t="s">
         <v>13</v>
@@ -4297,30 +4664,30 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="B80" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="C80" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="D80" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>355</v>
+        <v>455</v>
       </c>
       <c r="B81" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="C81" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="D81" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E81" t="s">
         <v>13</v>
@@ -4328,389 +4695,850 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="B82" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C82" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="D82" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="B83" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C83" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D83" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="E83" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="F83" t="s">
+        <v>45</v>
+      </c>
+      <c r="G83" t="s">
         <v>49</v>
       </c>
-      <c r="G83" t="s">
-        <v>53</v>
-      </c>
       <c r="H83" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="B84" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C84" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D84" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="E84" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="F84" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="G84" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="H84" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="B85" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="C85" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="D85" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="E85" t="s">
-        <v>400</v>
+        <v>492</v>
       </c>
       <c r="F85" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="G85" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="H85" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="B86" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C86" t="s">
+        <v>379</v>
+      </c>
+      <c r="D86" t="s">
+        <v>387</v>
+      </c>
+      <c r="E86" t="s">
+        <v>388</v>
+      </c>
+      <c r="F86" t="s">
+        <v>389</v>
+      </c>
+      <c r="G86" t="s">
+        <v>390</v>
+      </c>
+      <c r="H86" t="s">
+        <v>391</v>
+      </c>
+      <c r="I86" t="s">
+        <v>392</v>
+      </c>
+      <c r="J86" t="s">
+        <v>393</v>
+      </c>
+      <c r="K86" t="s">
+        <v>394</v>
+      </c>
+      <c r="L86" t="s">
+        <v>395</v>
+      </c>
+      <c r="M86" t="s">
         <v>396</v>
-      </c>
-      <c r="D86" t="s">
-        <v>405</v>
-      </c>
-      <c r="E86" t="s">
-        <v>406</v>
-      </c>
-      <c r="F86" t="s">
-        <v>407</v>
-      </c>
-      <c r="G86" t="s">
-        <v>408</v>
-      </c>
-      <c r="H86" t="s">
-        <v>409</v>
-      </c>
-      <c r="I86" t="s">
-        <v>410</v>
-      </c>
-      <c r="J86" t="s">
-        <v>411</v>
-      </c>
-      <c r="K86" t="s">
-        <v>412</v>
-      </c>
-      <c r="L86" t="s">
-        <v>413</v>
-      </c>
-      <c r="M86" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B87" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="C87" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="D87" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="E87" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="B88" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="C88" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="D88" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="E88" t="s">
+        <v>385</v>
+      </c>
+      <c r="F88" t="s">
         <v>403</v>
-      </c>
-      <c r="F88" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="B89" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="C89" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="D89" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="E89" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="F89" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="G89" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="H89" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="I89" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="B90" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="C90" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B91" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="C91" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="D91" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="E91" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="F91" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="B92" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="C92" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="D92" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="E92" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="F92" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="G92" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="H92" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="I92" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="B93" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="C93" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="D93" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="E93" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="F93" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="G93" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="H93" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="I93" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="J93" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="B94" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="C94" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="D94" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="E94" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="F94" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="G94" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="H94" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="I94" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="J94" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="B95" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="C95" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D95" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="E95" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="F95" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="G95" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="H95" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="I95" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="J95" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>413</v>
+      </c>
+      <c r="B96" t="s">
+        <v>426</v>
+      </c>
+      <c r="C96" t="s">
+        <v>57</v>
+      </c>
+      <c r="D96" t="s">
+        <v>415</v>
+      </c>
+      <c r="E96" t="s">
+        <v>416</v>
+      </c>
+      <c r="F96" t="s">
+        <v>416</v>
+      </c>
+      <c r="G96" t="s">
+        <v>417</v>
+      </c>
+      <c r="H96" t="s">
+        <v>418</v>
+      </c>
+      <c r="I96" t="s">
+        <v>419</v>
+      </c>
+      <c r="J96" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>428</v>
+      </c>
+      <c r="B97" t="s">
+        <v>429</v>
+      </c>
+      <c r="C97" t="s">
+        <v>72</v>
+      </c>
+      <c r="D97" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>431</v>
       </c>
-      <c r="B96" t="s">
-        <v>444</v>
-      </c>
-      <c r="C96" t="s">
+      <c r="B98" t="s">
+        <v>70</v>
+      </c>
+      <c r="C98" t="s">
+        <v>71</v>
+      </c>
+      <c r="D98" t="s">
+        <v>72</v>
+      </c>
+      <c r="E98" t="s">
+        <v>73</v>
+      </c>
+      <c r="F98" t="s">
+        <v>45</v>
+      </c>
+      <c r="G98" t="s">
+        <v>74</v>
+      </c>
+      <c r="H98" t="s">
+        <v>67</v>
+      </c>
+      <c r="I98" t="s">
+        <v>75</v>
+      </c>
+      <c r="J98" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>432</v>
+      </c>
+      <c r="B99" t="s">
+        <v>76</v>
+      </c>
+      <c r="C99" t="s">
+        <v>102</v>
+      </c>
+      <c r="D99" t="s">
+        <v>77</v>
+      </c>
+      <c r="E99" t="s">
+        <v>45</v>
+      </c>
+      <c r="F99" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>433</v>
+      </c>
+      <c r="B100" t="s">
+        <v>72</v>
+      </c>
+      <c r="C100" t="s">
+        <v>29</v>
+      </c>
+      <c r="D100" t="s">
+        <v>135</v>
+      </c>
+      <c r="E100" t="s">
+        <v>45</v>
+      </c>
+      <c r="F100" t="s">
+        <v>115</v>
+      </c>
+      <c r="G100" t="s">
+        <v>75</v>
+      </c>
+      <c r="H100" t="s">
+        <v>70</v>
+      </c>
+      <c r="I100" t="s">
+        <v>85</v>
+      </c>
+      <c r="J100" t="s">
+        <v>73</v>
+      </c>
+      <c r="K100" t="s">
+        <v>147</v>
+      </c>
+      <c r="L100" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>434</v>
+      </c>
+      <c r="B101" t="s">
+        <v>110</v>
+      </c>
+      <c r="C101" t="s">
+        <v>111</v>
+      </c>
+      <c r="D101" t="s">
+        <v>76</v>
+      </c>
+      <c r="E101" t="s">
+        <v>65</v>
+      </c>
+      <c r="F101" t="s">
+        <v>112</v>
+      </c>
+      <c r="G101" t="s">
+        <v>113</v>
+      </c>
+      <c r="H101" t="s">
+        <v>114</v>
+      </c>
+      <c r="I101" t="s">
+        <v>115</v>
+      </c>
+      <c r="J101" t="s">
+        <v>83</v>
+      </c>
+      <c r="K101" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>435</v>
+      </c>
+      <c r="B102" t="s">
+        <v>157</v>
+      </c>
+      <c r="C102" t="s">
+        <v>29</v>
+      </c>
+      <c r="D102" t="s">
+        <v>65</v>
+      </c>
+      <c r="E102" t="s">
+        <v>458</v>
+      </c>
+      <c r="F102" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>436</v>
+      </c>
+      <c r="B103" t="s">
+        <v>260</v>
+      </c>
+      <c r="C103" t="s">
+        <v>459</v>
+      </c>
+      <c r="D103" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>437</v>
+      </c>
+      <c r="B104" t="s">
+        <v>256</v>
+      </c>
+      <c r="C104" t="s">
+        <v>206</v>
+      </c>
+      <c r="D104" t="s">
         <v>61</v>
       </c>
-      <c r="D96" t="s">
-        <v>433</v>
-      </c>
-      <c r="E96" t="s">
-        <v>434</v>
-      </c>
-      <c r="F96" t="s">
-        <v>434</v>
-      </c>
-      <c r="G96" t="s">
-        <v>435</v>
-      </c>
-      <c r="H96" t="s">
-        <v>436</v>
-      </c>
-      <c r="I96" t="s">
-        <v>437</v>
-      </c>
-      <c r="J96" t="s">
-        <v>438</v>
+      <c r="E104" t="s">
+        <v>127</v>
+      </c>
+      <c r="F104" t="s">
+        <v>460</v>
+      </c>
+      <c r="G104" t="s">
+        <v>461</v>
+      </c>
+      <c r="H104" t="s">
+        <v>136</v>
+      </c>
+      <c r="I104" t="s">
+        <v>146</v>
+      </c>
+      <c r="J104" t="s">
+        <v>83</v>
+      </c>
+      <c r="K104" t="s">
+        <v>116</v>
+      </c>
+      <c r="L104" t="s">
+        <v>147</v>
+      </c>
+      <c r="M104" t="s">
+        <v>78</v>
+      </c>
+      <c r="N104" t="s">
+        <v>108</v>
+      </c>
+      <c r="O104" t="s">
+        <v>463</v>
+      </c>
+      <c r="P104" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>445</v>
+      </c>
+      <c r="B105" t="s">
+        <v>129</v>
+      </c>
+      <c r="C105" t="s">
+        <v>464</v>
+      </c>
+      <c r="D105" t="s">
+        <v>465</v>
+      </c>
+      <c r="E105" t="s">
+        <v>29</v>
+      </c>
+      <c r="F105" t="s">
+        <v>466</v>
+      </c>
+      <c r="G105" t="s">
+        <v>147</v>
+      </c>
+      <c r="H105" t="s">
+        <v>154</v>
+      </c>
+      <c r="I105" t="s">
+        <v>83</v>
+      </c>
+      <c r="J105" t="s">
+        <v>467</v>
+      </c>
+      <c r="K105" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>446</v>
+      </c>
+      <c r="B106" t="s">
+        <v>476</v>
+      </c>
+      <c r="C106" t="s">
+        <v>27</v>
+      </c>
+      <c r="D106" t="s">
+        <v>486</v>
+      </c>
+      <c r="E106" t="s">
+        <v>25</v>
+      </c>
+      <c r="F106" t="s">
+        <v>41</v>
+      </c>
+      <c r="G106" t="s">
+        <v>487</v>
+      </c>
+      <c r="H106" t="s">
+        <v>488</v>
+      </c>
+      <c r="I106" t="s">
+        <v>31</v>
+      </c>
+      <c r="J106" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>447</v>
+      </c>
+      <c r="B107" t="s">
+        <v>157</v>
+      </c>
+      <c r="C107" t="s">
+        <v>469</v>
+      </c>
+      <c r="D107" t="s">
+        <v>470</v>
+      </c>
+      <c r="E107" t="s">
+        <v>29</v>
+      </c>
+      <c r="F107" t="s">
+        <v>249</v>
+      </c>
+      <c r="G107" t="s">
+        <v>31</v>
+      </c>
+      <c r="H107" t="s">
+        <v>471</v>
+      </c>
+      <c r="I107" t="s">
+        <v>83</v>
+      </c>
+      <c r="J107" t="s">
+        <v>472</v>
+      </c>
+      <c r="K107" t="s">
+        <v>473</v>
+      </c>
+      <c r="L107" t="s">
+        <v>226</v>
+      </c>
+      <c r="M107" t="s">
+        <v>227</v>
+      </c>
+      <c r="N107" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>448</v>
+      </c>
+      <c r="B108" t="s">
+        <v>190</v>
+      </c>
+      <c r="C108" t="s">
+        <v>29</v>
+      </c>
+      <c r="D108" t="s">
+        <v>474</v>
+      </c>
+      <c r="E108" t="s">
+        <v>475</v>
+      </c>
+      <c r="F108" t="s">
+        <v>476</v>
+      </c>
+      <c r="G108" t="s">
+        <v>31</v>
+      </c>
+      <c r="H108" t="s">
+        <v>403</v>
+      </c>
+      <c r="I108" t="s">
+        <v>249</v>
+      </c>
+      <c r="J108" t="s">
+        <v>471</v>
+      </c>
+      <c r="K108" t="s">
+        <v>176</v>
+      </c>
+      <c r="L108" t="s">
+        <v>83</v>
+      </c>
+      <c r="M108" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>449</v>
+      </c>
+      <c r="B109" t="s">
+        <v>477</v>
+      </c>
+      <c r="C109" t="s">
+        <v>478</v>
+      </c>
+      <c r="D109" t="s">
+        <v>474</v>
+      </c>
+      <c r="E109" t="s">
+        <v>479</v>
+      </c>
+      <c r="F109" t="s">
+        <v>480</v>
+      </c>
+      <c r="G109" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>450</v>
+      </c>
+      <c r="B110" t="s">
+        <v>187</v>
+      </c>
+      <c r="C110" t="s">
+        <v>482</v>
+      </c>
+      <c r="D110" t="s">
+        <v>104</v>
+      </c>
+      <c r="E110" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>451</v>
+      </c>
+      <c r="B111" t="s">
+        <v>483</v>
+      </c>
+      <c r="C111" t="s">
+        <v>484</v>
+      </c>
+      <c r="D111" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>485</v>
+      </c>
+      <c r="B112" t="s">
+        <v>489</v>
+      </c>
+      <c r="C112" t="s">
+        <v>142</v>
+      </c>
+      <c r="D112" t="s">
+        <v>490</v>
+      </c>
+      <c r="E112" t="s">
+        <v>116</v>
+      </c>
+      <c r="F112" t="s">
+        <v>135</v>
+      </c>
+      <c r="G112" t="s">
+        <v>131</v>
+      </c>
+      <c r="H112" t="s">
+        <v>137</v>
+      </c>
+      <c r="I112" t="s">
+        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -4721,4 +5549,628 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5419896B-67F4-481D-92B4-633D522E8B34}">
+  <dimension ref="A1:D72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="111.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C1" t="s">
+        <v>575</v>
+      </c>
+      <c r="D1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>546</v>
+      </c>
+      <c r="B4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>503</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>502</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>501</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>561</v>
+      </c>
+      <c r="B8" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>500</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>548</v>
+      </c>
+      <c r="B10" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>499</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>498</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>497</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>496</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>495</v>
+      </c>
+      <c r="B15">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>512</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>505</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>506</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>507</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>508</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>509</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>510</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>513</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>514</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>515</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>516</v>
+      </c>
+      <c r="B26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>517</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>518</v>
+      </c>
+      <c r="B28">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>536</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>535</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>519</v>
+      </c>
+      <c r="B31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>520</v>
+      </c>
+      <c r="B32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>521</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>522</v>
+      </c>
+      <c r="B34">
+        <v>6</v>
+      </c>
+      <c r="C34">
+        <v>8</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>523</v>
+      </c>
+      <c r="B35">
+        <v>12</v>
+      </c>
+      <c r="C35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>524</v>
+      </c>
+      <c r="B36">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>525</v>
+      </c>
+      <c r="B37">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>526</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>527</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>528</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>529</v>
+      </c>
+      <c r="B41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>530</v>
+      </c>
+      <c r="B42" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>532</v>
+      </c>
+      <c r="B43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>533</v>
+      </c>
+      <c r="B44">
+        <v>6</v>
+      </c>
+      <c r="C44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>534</v>
+      </c>
+      <c r="B45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>537</v>
+      </c>
+      <c r="B46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>538</v>
+      </c>
+      <c r="B47">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>539</v>
+      </c>
+      <c r="B48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>540</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>541</v>
+      </c>
+      <c r="B50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>542</v>
+      </c>
+      <c r="B51" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>544</v>
+      </c>
+      <c r="B52" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>551</v>
+      </c>
+      <c r="B53">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>552</v>
+      </c>
+      <c r="B54">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>553</v>
+      </c>
+      <c r="B55">
+        <v>9</v>
+      </c>
+      <c r="C55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>572</v>
+      </c>
+      <c r="B56">
+        <v>16</v>
+      </c>
+      <c r="C56">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>554</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>555</v>
+      </c>
+      <c r="B58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>556</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>557</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>558</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>559</v>
+      </c>
+      <c r="B62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>560</v>
+      </c>
+      <c r="B63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>562</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>563</v>
+      </c>
+      <c r="B65" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>564</v>
+      </c>
+      <c r="B66" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>566</v>
+      </c>
+      <c r="B67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>567</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>569</v>
+      </c>
+      <c r="B69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>568</v>
+      </c>
+      <c r="B70" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>570</v>
+      </c>
+      <c r="B71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>571</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>